--- a/output/경기대로_여름_배출량/경기대로_여름_배출량_PM10_재비산.xlsx
+++ b/output/경기대로_여름_배출량/경기대로_여름_배출량_PM10_재비산.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM10_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM10_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM10_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM10_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM10_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM10_재비산 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1292 +397,1408 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM10_재비산 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024081209</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>48.62802251751053</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>4.539204260781325</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>20.40210352703916</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>10.04887527581972</v>
+      </c>
+      <c r="F2">
         <v>14.33287641756816</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>17.21555520271257</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>1.429999678674808</v>
       </c>
-      <c r="H2" t="n">
-        <v>106.5477616042865</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>116.5966368801063</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024081210</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>45.82627552477979</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>5.785260332368356</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>25.06544147607668</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>3.842217017225189</v>
+      </c>
+      <c r="F3">
         <v>15.79045707020221</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>15.266624425047</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>3.654443623280065</v>
       </c>
-      <c r="H3" t="n">
-        <v>111.3885024517541</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>115.2307194689793</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024081211</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>42.8313046015159</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>4.539204260781325</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>12.53272073803834</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>3.54666186205402</v>
+      </c>
+      <c r="F4">
         <v>12.55138895323765</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>14.61698083249181</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>3.177777063721795</v>
       </c>
-      <c r="H4" t="n">
-        <v>90.24937644978682</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>93.79603831184085</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024081212</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>49.6907541354429</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>4.895220281234762</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>16.90460006526102</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>6.206658258594537</v>
+      </c>
+      <c r="F5">
         <v>15.1426434468093</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>12.01840646227104</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>2.701110504163525</v>
       </c>
-      <c r="H5" t="n">
-        <v>101.3527348951826</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>107.5593931537771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024081213</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>46.2127233858461</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>5.073228291461482</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>20.693562148854</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>5.319992793081033</v>
+      </c>
+      <c r="F6">
         <v>16.19534058482277</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>12.34322825854863</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>2.383332797791347</v>
       </c>
-      <c r="H6" t="n">
-        <v>102.9014154673243</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>108.2214082604054</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024081214</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>49.56193818175414</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>5.251236301688199</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>23.89960698881731</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>5.319992793081033</v>
+      </c>
+      <c r="F7">
         <v>17.00510761406391</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>11.69358466599345</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>2.065555091419167</v>
       </c>
-      <c r="H7" t="n">
-        <v>109.4770288437362</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>114.7970216368172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024081215</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>50.65687378810863</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>4.806216276121401</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>23.31668974518762</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>5.911103103423367</v>
+      </c>
+      <c r="F8">
         <v>15.87143377312632</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>10.06947568460547</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>1.112221972302628</v>
       </c>
-      <c r="H8" t="n">
-        <v>105.8329112394521</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>111.7440143428754</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024081216</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>56.64681563463645</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>4.450200255667966</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>20.40210352703916</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>9.45776496547739</v>
+      </c>
+      <c r="F9">
         <v>14.08994630879581</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>10.71911927716066</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>1.747777385046988</v>
       </c>
-      <c r="H9" t="n">
-        <v>108.055962388347</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>117.5137273538244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024081217</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>61.50961788638751</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>5.429244311914917</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>18.65335179615009</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>17.7333093102701</v>
+      </c>
+      <c r="F10">
         <v>13.52310938832702</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>8.120544906939891</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>0.9533331191165386</v>
       </c>
-      <c r="H10" t="n">
-        <v>108.189201408836</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>125.9225107191061</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024081218</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>65.37409649705062</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>3.382152194307654</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>16.03022419981649</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>18.91552993095478</v>
+      </c>
+      <c r="F11">
         <v>7.530833371942591</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>1.624108981387979</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>1.112221972302628</v>
       </c>
-      <c r="H11" t="n">
-        <v>95.05363721680796</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>113.9691671477627</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024081219</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>47.62969887642258</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>2.848128163627498</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>16.32168282163133</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>11.52665105167557</v>
+      </c>
+      <c r="F12">
         <v>6.721066342701451</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>3.573039759053552</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>0.3177777063721796</v>
       </c>
-      <c r="H12" t="n">
-        <v>77.4113936698086</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>88.93804472148418</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024081220</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>41.54314506462821</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>1.958088112493905</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>9.618134519889891</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>15.36886806890076</v>
+      </c>
+      <c r="F13">
         <v>4.210788552053922</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>5.846792332996723</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13">
         <v>0.7944442659304488</v>
       </c>
-      <c r="H13" t="n">
-        <v>63.9713928479931</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>79.34026091689387</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024081221</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>32.91247616748065</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>1.691076097153827</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>9.909593141704738</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>9.75332012064856</v>
+      </c>
+      <c r="F14">
         <v>2.834184602343986</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>4.547505147886341</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14">
         <v>0.7944442659304488</v>
       </c>
-      <c r="H14" t="n">
-        <v>52.6892794225</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>62.44259954314856</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024081222</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>23.25127964082293</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>2.403108138060701</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>6.412089679926596</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>5.615547948252198</v>
+      </c>
+      <c r="F15">
         <v>2.429301087723417</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>3.897861555331148</v>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>38.39364010186479</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>44.00918805011699</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024081223</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>14.29857085945343</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>1.958088112493905</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>4.371879327222679</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>2.955551551711684</v>
+      </c>
+      <c r="F16">
         <v>1.862464167254619</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>3.573039759053552</v>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>26.06404222547818</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>29.01959377718986</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024081300</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>11.11037600565638</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>2.759124158514138</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>1.457293109074226</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
+        <v>0.5911103103423369</v>
+      </c>
+      <c r="F17">
         <v>1.05269713801348</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>4.222683351608743</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>20.60217376286698</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>21.19328407320931</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024081301</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>7.245897394993293</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>2.492112143174061</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>2.623127596333607</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
+        <v>1.182220620684674</v>
+      </c>
+      <c r="F18">
         <v>1.943440870178733</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>2.598574370220766</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>16.90315237490046</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>18.08537299558514</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024081302</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>4.315334448573783</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>2.225100127833983</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>3.497503461778142</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>0.2955551551711684</v>
+      </c>
+      <c r="F19">
         <v>0.8907437321652527</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>5.521970536719127</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19">
         <v>0.1588888531860898</v>
       </c>
-      <c r="H19" t="n">
-        <v>16.60954116025637</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>16.90509631542754</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024081303</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>5.217046124395169</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>1.691076097153827</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>4.371879327222679</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>0.8866654655135051</v>
+      </c>
+      <c r="F20">
         <v>1.781487464330505</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>4.547505147886341</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20">
         <v>0.1588888531860898</v>
       </c>
-      <c r="H20" t="n">
-        <v>17.76788301417461</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>18.65454847968811</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024081304</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>8.952708781369488</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.8010360460202338</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>6.120631058111751</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>2.068886086198179</v>
+      </c>
+      <c r="F21">
         <v>3.158091414040441</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>7.4709013143847</v>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
-        <v>26.50336861392661</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>28.57225470012479</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024081305</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>18.00202952800556</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.7120320409068744</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>9.035217276260202</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>8.57109949996388</v>
+      </c>
+      <c r="F22">
         <v>8.907437321652527</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>13.64251544365902</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>0.3177777063721796</v>
       </c>
-      <c r="H22" t="n">
-        <v>50.61700931685635</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>59.18810881682023</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024081306</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>34.20063570436835</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>1.602072092040468</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>15.44730695618679</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>24.82663303437815</v>
+      </c>
+      <c r="F23">
         <v>13.11822587370645</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>19.16448598037814</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>1.906666238233077</v>
       </c>
-      <c r="H23" t="n">
-        <v>85.43939284491329</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>110.2660258792914</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024081307</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>49.20769430911</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>2.403108138060701</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>16.32168282163133</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>26.89551912057632</v>
+      </c>
+      <c r="F24">
         <v>13.84701620002348</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>24.36163472081968</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>2.859999357349615</v>
       </c>
-      <c r="H24" t="n">
-        <v>109.0011355469948</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>135.8966546675711</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024081308</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>53.49082476926157</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>4.094184235214528</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>20.40210352703916</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>12.70887167236024</v>
+      </c>
+      <c r="F25">
         <v>14.08994630879581</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>16.56591161015737</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>1.271110825488718</v>
       </c>
-      <c r="H25" t="n">
-        <v>109.9140812759572</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>122.6229529483174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024081309</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>50.1416099733536</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>4.361196250554606</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>19.81918628340948</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>10.3444304309909</v>
+      </c>
+      <c r="F26">
         <v>14.89971333803696</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>18.19002059154536</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>1.271110825488718</v>
       </c>
-      <c r="H26" t="n">
-        <v>108.6828372623887</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>119.0272676933796</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024081310</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>47.24325101535628</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>5.607252322141636</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>24.19106561063216</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>4.137772172396358</v>
+      </c>
+      <c r="F27">
         <v>16.357293990671</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>15.91626801760219</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>3.336665916907886</v>
       </c>
-      <c r="H27" t="n">
-        <v>112.6517968733112</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>116.7895690457075</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024081311</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>47.88733078380011</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>5.162232296574839</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>18.94481041796494</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>4.137772172396358</v>
+      </c>
+      <c r="F28">
         <v>14.65678322926461</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>16.89073340643497</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>2.065555091419167</v>
       </c>
-      <c r="H28" t="n">
-        <v>105.6074452254586</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>109.745217397855</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024081312</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>49.98059003124262</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>5.518248317028276</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>16.03022419981649</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>4.433327327567525</v>
+      </c>
+      <c r="F29">
         <v>14.65678322926461</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>13.64251544365902</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>1.271110825488718</v>
       </c>
-      <c r="H29" t="n">
-        <v>101.0994720464997</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>105.5327993740673</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024081313</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>51.88062534815198</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>4.806216276121401</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>13.40709660348288</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>5.024437637909862</v>
+      </c>
+      <c r="F30">
         <v>18.21975815792562</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>15.266624425047</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>1.906666238233077</v>
       </c>
-      <c r="H30" t="n">
-        <v>105.486987048962</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>110.5114246868718</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024081314</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>46.63137523533459</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>4.806216276121401</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>17.77897593070555</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>5.319992793081033</v>
+      </c>
+      <c r="F31">
         <v>14.25189971464404</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>10.71911927716066</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>0.9533331191165386</v>
       </c>
-      <c r="H31" t="n">
-        <v>95.14091955308278</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>100.4609123461638</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024081315</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>51.94503332499635</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>4.272192245441247</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>26.81419320696575</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>5.319992793081033</v>
+      </c>
+      <c r="F32">
         <v>16.357293990671</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>10.06947568460547</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>2.224443944605257</v>
       </c>
-      <c r="H32" t="n">
-        <v>111.6826323972851</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>117.0026251903661</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024081316</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>52.2026652323739</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>4.450200255667966</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>22.73377250155793</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>7.684434034450379</v>
+      </c>
+      <c r="F33">
         <v>15.1426434468093</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>12.66805005482624</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>2.065555091419167</v>
       </c>
-      <c r="H33" t="n">
-        <v>109.2628865826545</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>116.9473206171049</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024081317</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>62.3147175969423</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>3.82717221987445</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>19.81918628340948</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>15.66442322407192</v>
+      </c>
+      <c r="F34">
         <v>12.63236565616176</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>7.146079518107104</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>1.588888531860898</v>
       </c>
-      <c r="H34" t="n">
-        <v>107.328409806356</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>122.9928330304279</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024081318</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>65.05205661282868</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>2.937132168740858</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>16.32168282163133</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>17.43775415509894</v>
+      </c>
+      <c r="F35">
         <v>9.798181053817778</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>4.547505147886341</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>1.271110825488718</v>
       </c>
-      <c r="H35" t="n">
-        <v>99.92766863039371</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>117.3654227854926</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024081319</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>48.95006240173247</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>2.403108138060701</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>16.61314144344617</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>18.32441962061244</v>
+      </c>
+      <c r="F36">
         <v>6.073252719308542</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>4.222683351608743</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>0.7944442659304488</v>
       </c>
-      <c r="H36" t="n">
-        <v>79.05669232008707</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>97.38111194069951</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024081320</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>45.43982766371348</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>2.225100127833983</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>9.618134519889891</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>18.02886446544127</v>
+      </c>
+      <c r="F37">
         <v>5.263485690067402</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>5.521970536719127</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37">
         <v>0.3177777063721796</v>
       </c>
-      <c r="H37" t="n">
-        <v>68.38629624459607</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>86.41516071003733</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024081321</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>36.13287500969991</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>1.33506007670039</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>7.869382789000821</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>12.41331651718907</v>
+      </c>
+      <c r="F38">
         <v>3.401021522812784</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>5.521970536719127</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38">
         <v>0.3177777063721796</v>
       </c>
-      <c r="H38" t="n">
-        <v>54.5780876413052</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>66.99140415849429</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024081322</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>25.8598027030205</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>1.869084107380546</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>3.788962083592987</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>5.319992793081033</v>
+      </c>
+      <c r="F39">
         <v>2.429301087723417</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>3.248217962775958</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>0.4766665595582693</v>
       </c>
-      <c r="H39" t="n">
-        <v>37.67203450405167</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>42.99202729713271</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024081323</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>15.23248652369701</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>2.136096122720624</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>4.080420705407833</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>2.364441241369347</v>
+      </c>
+      <c r="F40">
         <v>1.943440870178733</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>4.547505147886341</v>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
-        <v>27.93994936989054</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>30.30439061125989</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024081400</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>11.75445577410023</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>2.225100127833983</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>1.457293109074226</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
+        <v>1.182220620684674</v>
+      </c>
+      <c r="F41">
         <v>1.538557355558164</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>5.521970536719127</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
-        <v>22.49737690328573</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>23.67959752397041</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024081401</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>7.6323452560596</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>2.492112143174061</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>2.331668974518761</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
+        <v>1.477775775855842</v>
+      </c>
+      <c r="F42">
         <v>1.619534058482278</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>4.872326944163936</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
-        <v>18.94798737639864</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>20.42576315225448</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024081402</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>5.345862078083941</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>2.759124158514138</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>4.371879327222679</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>0.5911103103423369</v>
+      </c>
+      <c r="F43">
         <v>1.295627246785822</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>3.248217962775958</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43">
         <v>0.1588888531860898</v>
       </c>
-      <c r="H43" t="n">
-        <v>17.17959962656862</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>17.77070993691096</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024081403</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>5.925533869683405</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>2.759124158514138</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>2.914586218148453</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>1.182220620684674</v>
+      </c>
+      <c r="F44">
         <v>1.781487464330505</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>1.948930777665574</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
-        <v>15.32966248834207</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>16.51188310902675</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024081404</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>7.986589128703721</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.8900400511335933</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>5.537713814482057</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>1.77333093102701</v>
+      </c>
+      <c r="F45">
         <v>2.996138008192214</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>4.222683351608743</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>0.6355554127443591</v>
       </c>
-      <c r="H45" t="n">
-        <v>22.26871976686469</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>24.0420506978917</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024081405</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>18.54949733118283</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.7120320409068744</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>8.743758654445358</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>8.866654655135051</v>
+      </c>
+      <c r="F46">
         <v>9.231344133348982</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>14.29215903621421</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>0.3177777063721796</v>
       </c>
-      <c r="H46" t="n">
-        <v>51.84656890247043</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>60.71322355760549</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024081406</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>35.2633673223007</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>1.513068086927108</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>14.86438971255711</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>25.71329849989165</v>
+      </c>
+      <c r="F47">
         <v>13.60408609125114</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>20.13895136921094</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>1.747777385046988</v>
       </c>
-      <c r="H47" t="n">
-        <v>87.13163996729398</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>112.8449384671856</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024081407</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>50.72128176495305</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>2.314104132947342</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>15.73876557800164</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>28.07773974126101</v>
+      </c>
+      <c r="F48">
         <v>14.33287641756816</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>25.66092190593006</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>2.701110504163525</v>
       </c>
-      <c r="H48" t="n">
-        <v>111.4690603035638</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>139.5468000448248</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024081408</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>55.16543216721559</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>4.005180230101169</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>19.81918628340948</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>13.29998198270258</v>
+      </c>
+      <c r="F49">
         <v>14.65678322926461</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>17.54037699899016</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>1.112221972302628</v>
       </c>
-      <c r="H49" t="n">
-        <v>112.2991808812836</v>
+      <c r="I49">
+        <v>125.5991628639862</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기대로_여름_배출량/경기대로_여름_배출량_PM10_재비산.xlsx
+++ b/output/경기대로_여름_배출량/경기대로_여름_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>48.62802251751053</v>
+        <v>70.48949003190441</v>
       </c>
       <c r="C2">
-        <v>4.539204260781325</v>
+        <v>6.579872611063017</v>
       </c>
       <c r="D2">
-        <v>20.40210352703916</v>
+        <v>29.57417963441242</v>
       </c>
       <c r="E2">
-        <v>10.04887527581972</v>
+        <v>14.56650007373172</v>
       </c>
       <c r="F2">
-        <v>14.33287641756816</v>
+        <v>20.77643912007489</v>
       </c>
       <c r="G2">
-        <v>17.21555520271257</v>
+        <v>24.95507001993205</v>
       </c>
       <c r="H2">
-        <v>1.429999678674808</v>
+        <v>2.072877795087743</v>
       </c>
       <c r="I2">
-        <v>116.5966368801063</v>
+        <v>169.0144292862063</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>45.82627552477979</v>
+        <v>66.42817504331127</v>
       </c>
       <c r="C3">
-        <v>5.785260332368356</v>
+        <v>8.386112151354824</v>
       </c>
       <c r="D3">
-        <v>25.06544147607668</v>
+        <v>36.33399212227813</v>
       </c>
       <c r="E3">
-        <v>3.842217017225189</v>
+        <v>5.5695441458386</v>
       </c>
       <c r="F3">
-        <v>15.79045707020221</v>
+        <v>22.88929733567572</v>
       </c>
       <c r="G3">
-        <v>15.266624425047</v>
+        <v>22.12996775352465</v>
       </c>
       <c r="H3">
-        <v>3.654443623280065</v>
+        <v>5.297354365224233</v>
       </c>
       <c r="I3">
-        <v>115.2307194689793</v>
+        <v>167.0344429172074</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>42.8313046015159</v>
+        <v>62.08676936584961</v>
       </c>
       <c r="C4">
-        <v>4.539204260781325</v>
+        <v>6.579872611063017</v>
       </c>
       <c r="D4">
-        <v>12.53272073803834</v>
+        <v>18.16699606113906</v>
       </c>
       <c r="E4">
-        <v>3.54666186205402</v>
+        <v>5.141117673081784</v>
       </c>
       <c r="F4">
-        <v>12.55138895323765</v>
+        <v>18.19405685656275</v>
       </c>
       <c r="G4">
-        <v>14.61698083249181</v>
+        <v>21.18826699805552</v>
       </c>
       <c r="H4">
-        <v>3.177777063721795</v>
+        <v>4.606395100194987</v>
       </c>
       <c r="I4">
-        <v>93.79603831184085</v>
+        <v>135.9634746659467</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>49.6907541354429</v>
+        <v>72.0299888206811</v>
       </c>
       <c r="C5">
-        <v>4.895220281234762</v>
+        <v>7.09594105114639</v>
       </c>
       <c r="D5">
-        <v>16.90460006526102</v>
+        <v>24.50432026851315</v>
       </c>
       <c r="E5">
-        <v>6.206658258594537</v>
+        <v>8.996955927893124</v>
       </c>
       <c r="F5">
-        <v>15.1426434468093</v>
+        <v>21.95024923985313</v>
       </c>
       <c r="G5">
-        <v>12.01840646227104</v>
+        <v>17.42146397617897</v>
       </c>
       <c r="H5">
-        <v>2.701110504163525</v>
+        <v>3.915435835165739</v>
       </c>
       <c r="I5">
-        <v>107.5593931537771</v>
+        <v>155.9143551194316</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>46.2127233858461</v>
+        <v>66.98835642104825</v>
       </c>
       <c r="C6">
-        <v>5.073228291461482</v>
+        <v>7.353975271188077</v>
       </c>
       <c r="D6">
-        <v>20.693562148854</v>
+        <v>29.99666791490403</v>
       </c>
       <c r="E6">
-        <v>5.319992793081033</v>
+        <v>7.711676509622677</v>
       </c>
       <c r="F6">
-        <v>16.19534058482277</v>
+        <v>23.47620239556485</v>
       </c>
       <c r="G6">
-        <v>12.34322825854863</v>
+        <v>17.89231435391355</v>
       </c>
       <c r="H6">
-        <v>2.383332797791347</v>
+        <v>3.45479632514624</v>
       </c>
       <c r="I6">
-        <v>108.2214082604054</v>
+        <v>156.8739891913877</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>49.56193818175414</v>
+        <v>71.84326169476883</v>
       </c>
       <c r="C7">
-        <v>5.251236301688199</v>
+        <v>7.612009491229764</v>
       </c>
       <c r="D7">
-        <v>23.89960698881731</v>
+        <v>34.6440390003117</v>
       </c>
       <c r="E7">
-        <v>5.319992793081033</v>
+        <v>7.711676509622677</v>
       </c>
       <c r="F7">
-        <v>17.00510761406391</v>
+        <v>24.65001251534309</v>
       </c>
       <c r="G7">
-        <v>11.69358466599345</v>
+        <v>16.95061359844441</v>
       </c>
       <c r="H7">
-        <v>2.065555091419167</v>
+        <v>2.994156815126741</v>
       </c>
       <c r="I7">
-        <v>114.7970216368172</v>
+        <v>166.4057696248472</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>50.65687378810863</v>
+        <v>73.4304422650236</v>
       </c>
       <c r="C8">
-        <v>4.806216276121401</v>
+        <v>6.966923941125547</v>
       </c>
       <c r="D8">
-        <v>23.31668974518762</v>
+        <v>33.79906243932849</v>
       </c>
       <c r="E8">
-        <v>5.911103103423367</v>
+        <v>8.568529455136309</v>
       </c>
       <c r="F8">
-        <v>15.87143377312632</v>
+        <v>23.00667834765355</v>
       </c>
       <c r="G8">
-        <v>10.06947568460547</v>
+        <v>14.59636170977158</v>
       </c>
       <c r="H8">
-        <v>1.112221972302628</v>
+        <v>1.612238285068245</v>
       </c>
       <c r="I8">
-        <v>111.7440143428754</v>
+        <v>161.9802364431073</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>56.64681563463645</v>
+        <v>82.11325361994696</v>
       </c>
       <c r="C9">
-        <v>4.450200255667966</v>
+        <v>6.450855501042175</v>
       </c>
       <c r="D9">
-        <v>20.40210352703916</v>
+        <v>29.57417963441242</v>
       </c>
       <c r="E9">
-        <v>9.45776496547739</v>
+        <v>13.7096471282181</v>
       </c>
       <c r="F9">
-        <v>14.08994630879581</v>
+        <v>20.42429608414142</v>
       </c>
       <c r="G9">
-        <v>10.71911927716066</v>
+        <v>15.5380624652407</v>
       </c>
       <c r="H9">
-        <v>1.747777385046988</v>
+        <v>2.533517305107242</v>
       </c>
       <c r="I9">
-        <v>117.5137273538244</v>
+        <v>170.343811738109</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>61.50961788638751</v>
+        <v>89.1622026231374</v>
       </c>
       <c r="C10">
-        <v>5.429244311914917</v>
+        <v>7.870043711271451</v>
       </c>
       <c r="D10">
-        <v>18.65335179615009</v>
+        <v>27.03924995146279</v>
       </c>
       <c r="E10">
-        <v>17.7333093102701</v>
+        <v>25.70558836540892</v>
       </c>
       <c r="F10">
-        <v>13.52310938832702</v>
+        <v>19.60262900029664</v>
       </c>
       <c r="G10">
-        <v>8.120544906939891</v>
+        <v>11.77125944336418</v>
       </c>
       <c r="H10">
-        <v>0.9533331191165386</v>
+        <v>1.381918530058495</v>
       </c>
       <c r="I10">
-        <v>125.9225107191061</v>
+        <v>182.5328916249999</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>65.37409649705062</v>
+        <v>94.76401640050727</v>
       </c>
       <c r="C11">
-        <v>3.382152194307654</v>
+        <v>4.902650180792051</v>
       </c>
       <c r="D11">
-        <v>16.03022419981649</v>
+        <v>23.23685542703833</v>
       </c>
       <c r="E11">
-        <v>18.91552993095478</v>
+        <v>27.41929425643619</v>
       </c>
       <c r="F11">
-        <v>7.530833371942591</v>
+        <v>10.91643411393765</v>
       </c>
       <c r="G11">
-        <v>1.624108981387979</v>
+        <v>2.354251888672835</v>
       </c>
       <c r="H11">
-        <v>1.112221972302628</v>
+        <v>1.612238285068245</v>
       </c>
       <c r="I11">
-        <v>113.9691671477627</v>
+        <v>165.2057405524526</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>47.62969887642258</v>
+        <v>69.04235480608391</v>
       </c>
       <c r="C12">
-        <v>2.848128163627498</v>
+        <v>4.12854752066699</v>
       </c>
       <c r="D12">
-        <v>16.32168282163133</v>
+        <v>23.65934370752994</v>
       </c>
       <c r="E12">
-        <v>11.52665105167557</v>
+        <v>16.70863243751581</v>
       </c>
       <c r="F12">
-        <v>6.721066342701451</v>
+        <v>9.742623994159409</v>
       </c>
       <c r="G12">
-        <v>3.573039759053552</v>
+        <v>5.179354155080236</v>
       </c>
       <c r="H12">
-        <v>0.3177777063721796</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="I12">
-        <v>88.93804472148418</v>
+        <v>128.9214961310558</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>41.54314506462821</v>
+        <v>60.21949810672629</v>
       </c>
       <c r="C13">
-        <v>1.958088112493905</v>
+        <v>2.838376420458556</v>
       </c>
       <c r="D13">
-        <v>9.618134519889891</v>
+        <v>13.942113256223</v>
       </c>
       <c r="E13">
-        <v>15.36886806890076</v>
+        <v>22.2781765833544</v>
       </c>
       <c r="F13">
-        <v>4.210788552053922</v>
+        <v>6.103812622846859</v>
       </c>
       <c r="G13">
-        <v>5.846792332996723</v>
+        <v>8.475306799222206</v>
       </c>
       <c r="H13">
-        <v>0.7944442659304488</v>
+        <v>1.151598775048747</v>
       </c>
       <c r="I13">
-        <v>79.34026091689387</v>
+        <v>115.0088825638801</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>32.91247616748065</v>
+        <v>47.70878067060021</v>
       </c>
       <c r="C14">
-        <v>1.691076097153827</v>
+        <v>2.451325090396026</v>
       </c>
       <c r="D14">
-        <v>9.909593141704738</v>
+        <v>14.36460153671461</v>
       </c>
       <c r="E14">
-        <v>9.75332012064856</v>
+        <v>14.13807360097491</v>
       </c>
       <c r="F14">
-        <v>2.834184602343986</v>
+        <v>4.108335419223847</v>
       </c>
       <c r="G14">
-        <v>4.547505147886341</v>
+        <v>6.591905288283937</v>
       </c>
       <c r="H14">
-        <v>0.7944442659304488</v>
+        <v>1.151598775048747</v>
       </c>
       <c r="I14">
-        <v>62.44259954314856</v>
+        <v>90.51462038124228</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,25 +815,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>23.25127964082293</v>
+        <v>33.70424622717552</v>
       </c>
       <c r="C15">
-        <v>2.403108138060701</v>
+        <v>3.483461970562773</v>
       </c>
       <c r="D15">
-        <v>6.412089679926596</v>
+        <v>9.294742170815336</v>
       </c>
       <c r="E15">
-        <v>5.615547948252198</v>
+        <v>8.140102982379494</v>
       </c>
       <c r="F15">
-        <v>2.429301087723417</v>
+        <v>3.521430359334726</v>
       </c>
       <c r="G15">
-        <v>3.897861555331148</v>
+        <v>5.650204532814803</v>
       </c>
       <c r="I15">
-        <v>44.00918805011699</v>
+        <v>63.79418824308265</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,25 +841,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>14.29857085945343</v>
+        <v>20.72671097626859</v>
       </c>
       <c r="C16">
-        <v>1.958088112493905</v>
+        <v>2.838376420458556</v>
       </c>
       <c r="D16">
-        <v>4.371879327222679</v>
+        <v>6.33732420737409</v>
       </c>
       <c r="E16">
-        <v>2.955551551711684</v>
+        <v>4.284264727568154</v>
       </c>
       <c r="F16">
-        <v>1.862464167254619</v>
+        <v>2.699763275489957</v>
       </c>
       <c r="G16">
-        <v>3.573039759053552</v>
+        <v>5.179354155080236</v>
       </c>
       <c r="I16">
-        <v>29.01959377718986</v>
+        <v>42.06579376223959</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -867,25 +867,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>11.11037600565638</v>
+        <v>16.10521460993842</v>
       </c>
       <c r="C17">
-        <v>2.759124158514138</v>
+        <v>3.999530410646148</v>
       </c>
       <c r="D17">
-        <v>1.457293109074226</v>
+        <v>2.11244140245803</v>
       </c>
       <c r="E17">
-        <v>0.5911103103423369</v>
+        <v>0.856852945513631</v>
       </c>
       <c r="F17">
-        <v>1.05269713801348</v>
+        <v>1.525953155711715</v>
       </c>
       <c r="G17">
-        <v>4.222683351608743</v>
+        <v>6.121054910549371</v>
       </c>
       <c r="I17">
-        <v>21.19328407320931</v>
+        <v>30.72104743481732</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,25 +893,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>7.245897394993293</v>
+        <v>10.50340083256854</v>
       </c>
       <c r="C18">
-        <v>2.492112143174061</v>
+        <v>3.612479080583618</v>
       </c>
       <c r="D18">
-        <v>2.623127596333607</v>
+        <v>3.802394524424455</v>
       </c>
       <c r="E18">
-        <v>1.182220620684674</v>
+        <v>1.713705891027262</v>
       </c>
       <c r="F18">
-        <v>1.943440870178733</v>
+        <v>2.817144287467781</v>
       </c>
       <c r="G18">
-        <v>2.598574370220766</v>
+        <v>3.766803021876536</v>
       </c>
       <c r="I18">
-        <v>18.08537299558514</v>
+        <v>26.21592763794819</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -919,28 +919,28 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>4.315334448573783</v>
+        <v>6.255358718063042</v>
       </c>
       <c r="C19">
-        <v>2.225100127833983</v>
+        <v>3.225427750521087</v>
       </c>
       <c r="D19">
-        <v>3.497503461778142</v>
+        <v>5.069859365899274</v>
       </c>
       <c r="E19">
-        <v>0.2955551551711684</v>
+        <v>0.4284264727568155</v>
       </c>
       <c r="F19">
-        <v>0.8907437321652527</v>
+        <v>1.291191131756066</v>
       </c>
       <c r="G19">
-        <v>5.521970536719127</v>
+        <v>8.004456421487639</v>
       </c>
       <c r="H19">
-        <v>0.1588888531860898</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="I19">
-        <v>16.90509631542754</v>
+        <v>24.50503961549367</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,28 +948,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>5.217046124395169</v>
+        <v>7.562448599449348</v>
       </c>
       <c r="C20">
-        <v>1.691076097153827</v>
+        <v>2.451325090396026</v>
       </c>
       <c r="D20">
-        <v>4.371879327222679</v>
+        <v>6.33732420737409</v>
       </c>
       <c r="E20">
-        <v>0.8866654655135051</v>
+        <v>1.285279418270446</v>
       </c>
       <c r="F20">
-        <v>1.781487464330505</v>
+        <v>2.582382263512133</v>
       </c>
       <c r="G20">
-        <v>4.547505147886341</v>
+        <v>6.591905288283937</v>
       </c>
       <c r="H20">
-        <v>0.1588888531860898</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="I20">
-        <v>18.65454847968811</v>
+        <v>27.04098462229572</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,25 +977,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>8.952708781369488</v>
+        <v>12.9775352509069</v>
       </c>
       <c r="C21">
-        <v>0.8010360460202338</v>
+        <v>1.161153990187591</v>
       </c>
       <c r="D21">
-        <v>6.120631058111751</v>
+        <v>8.872253890323726</v>
       </c>
       <c r="E21">
-        <v>2.068886086198179</v>
+        <v>2.998985309297708</v>
       </c>
       <c r="F21">
-        <v>3.158091414040441</v>
+        <v>4.577859467135145</v>
       </c>
       <c r="G21">
-        <v>7.4709013143847</v>
+        <v>10.82955868789504</v>
       </c>
       <c r="I21">
-        <v>28.57225470012479</v>
+        <v>41.41734659574611</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>18.00202952800556</v>
+        <v>26.09511584624807</v>
       </c>
       <c r="C22">
-        <v>0.7120320409068744</v>
+        <v>1.032136880166747</v>
       </c>
       <c r="D22">
-        <v>9.035217276260202</v>
+        <v>13.09713669523979</v>
       </c>
       <c r="E22">
-        <v>8.57109949996388</v>
+        <v>12.42436770994765</v>
       </c>
       <c r="F22">
-        <v>8.907437321652527</v>
+        <v>12.91191131756067</v>
       </c>
       <c r="G22">
-        <v>13.64251544365902</v>
+        <v>19.7757158648518</v>
       </c>
       <c r="H22">
-        <v>0.3177777063721796</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="I22">
-        <v>59.18810881682023</v>
+        <v>85.79702382403424</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>34.20063570436835</v>
+        <v>49.57605192972351</v>
       </c>
       <c r="C23">
-        <v>1.602072092040468</v>
+        <v>2.322307980375183</v>
       </c>
       <c r="D23">
-        <v>15.44730695618679</v>
+        <v>22.39187886605512</v>
       </c>
       <c r="E23">
-        <v>24.82663303437815</v>
+        <v>35.9878237115725</v>
       </c>
       <c r="F23">
-        <v>13.11822587370645</v>
+        <v>19.01572394040753</v>
       </c>
       <c r="G23">
-        <v>19.16448598037814</v>
+        <v>27.78017228633945</v>
       </c>
       <c r="H23">
-        <v>1.906666238233077</v>
+        <v>2.763837060116991</v>
       </c>
       <c r="I23">
-        <v>110.2660258792914</v>
+        <v>159.8377957745903</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>49.20769430911</v>
+        <v>71.3297620985099</v>
       </c>
       <c r="C24">
-        <v>2.403108138060701</v>
+        <v>3.483461970562773</v>
       </c>
       <c r="D24">
-        <v>16.32168282163133</v>
+        <v>23.65934370752994</v>
       </c>
       <c r="E24">
-        <v>26.89551912057632</v>
+        <v>38.9868090208702</v>
       </c>
       <c r="F24">
-        <v>13.84701620002348</v>
+        <v>20.07215304820794</v>
       </c>
       <c r="G24">
-        <v>24.36163472081968</v>
+        <v>35.31377833009252</v>
       </c>
       <c r="H24">
-        <v>2.859999357349615</v>
+        <v>4.145755590175487</v>
       </c>
       <c r="I24">
-        <v>135.8966546675711</v>
+        <v>196.9910637659488</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>53.49082476926157</v>
+        <v>77.53843903509487</v>
       </c>
       <c r="C25">
-        <v>4.094184235214528</v>
+        <v>5.9347870609588</v>
       </c>
       <c r="D25">
-        <v>20.40210352703916</v>
+        <v>29.57417963441242</v>
       </c>
       <c r="E25">
-        <v>12.70887167236024</v>
+        <v>18.42233832854306</v>
       </c>
       <c r="F25">
-        <v>14.08994630879581</v>
+        <v>20.42429608414142</v>
       </c>
       <c r="G25">
-        <v>16.56591161015737</v>
+        <v>24.01336926446291</v>
       </c>
       <c r="H25">
-        <v>1.271110825488718</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="I25">
-        <v>122.6229529483174</v>
+        <v>177.7499674476915</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>50.1416099733536</v>
+        <v>72.68353376137429</v>
       </c>
       <c r="C26">
-        <v>4.361196250554606</v>
+        <v>6.321838391021331</v>
       </c>
       <c r="D26">
-        <v>19.81918628340948</v>
+        <v>28.72920307342921</v>
       </c>
       <c r="E26">
-        <v>10.3444304309909</v>
+        <v>14.99492654648854</v>
       </c>
       <c r="F26">
-        <v>14.89971333803696</v>
+        <v>21.59810620391966</v>
       </c>
       <c r="G26">
-        <v>18.19002059154536</v>
+        <v>26.36762115313575</v>
       </c>
       <c r="H26">
-        <v>1.271110825488718</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="I26">
-        <v>119.0272676933796</v>
+        <v>172.5377871694468</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>47.24325101535628</v>
+        <v>68.48217342834684</v>
       </c>
       <c r="C27">
-        <v>5.607252322141636</v>
+        <v>8.128077931313136</v>
       </c>
       <c r="D27">
-        <v>24.19106561063216</v>
+        <v>35.06652728080331</v>
       </c>
       <c r="E27">
-        <v>4.137772172396358</v>
+        <v>5.997970618595416</v>
       </c>
       <c r="F27">
-        <v>16.357293990671</v>
+        <v>23.7109644195205</v>
       </c>
       <c r="G27">
-        <v>15.91626801760219</v>
+        <v>23.07166850899378</v>
       </c>
       <c r="H27">
-        <v>3.336665916907886</v>
+        <v>4.836714855204734</v>
       </c>
       <c r="I27">
-        <v>116.7895690457075</v>
+        <v>169.2940970427777</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>47.88733078380011</v>
+        <v>69.41580905790849</v>
       </c>
       <c r="C28">
-        <v>5.162232296574839</v>
+        <v>7.482992381208921</v>
       </c>
       <c r="D28">
-        <v>18.94481041796494</v>
+        <v>27.4617382319544</v>
       </c>
       <c r="E28">
-        <v>4.137772172396358</v>
+        <v>5.997970618595416</v>
       </c>
       <c r="F28">
-        <v>14.65678322926461</v>
+        <v>21.24596316798618</v>
       </c>
       <c r="G28">
-        <v>16.89073340643497</v>
+        <v>24.48421964219748</v>
       </c>
       <c r="H28">
-        <v>2.065555091419167</v>
+        <v>2.994156815126741</v>
       </c>
       <c r="I28">
-        <v>109.745217397855</v>
+        <v>159.0828499149776</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>49.98059003124262</v>
+        <v>72.45012485398388</v>
       </c>
       <c r="C29">
-        <v>5.518248317028276</v>
+        <v>7.999060821292296</v>
       </c>
       <c r="D29">
-        <v>16.03022419981649</v>
+        <v>23.23685542703833</v>
       </c>
       <c r="E29">
-        <v>4.433327327567525</v>
+        <v>6.42639709135223</v>
       </c>
       <c r="F29">
-        <v>14.65678322926461</v>
+        <v>21.24596316798618</v>
       </c>
       <c r="G29">
-        <v>13.64251544365902</v>
+        <v>19.7757158648518</v>
       </c>
       <c r="H29">
-        <v>1.271110825488718</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="I29">
-        <v>105.5327993740673</v>
+        <v>152.9766752665827</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>51.88062534815198</v>
+        <v>75.20434996119073</v>
       </c>
       <c r="C30">
-        <v>4.806216276121401</v>
+        <v>6.966923941125547</v>
       </c>
       <c r="D30">
-        <v>13.40709660348288</v>
+        <v>19.43446090261388</v>
       </c>
       <c r="E30">
-        <v>5.024437637909862</v>
+        <v>7.283250036865859</v>
       </c>
       <c r="F30">
-        <v>18.21975815792562</v>
+        <v>26.41072769501044</v>
       </c>
       <c r="G30">
-        <v>15.266624425047</v>
+        <v>22.12996775352465</v>
       </c>
       <c r="H30">
-        <v>1.906666238233077</v>
+        <v>2.763837060116991</v>
       </c>
       <c r="I30">
-        <v>110.5114246868718</v>
+        <v>160.1935173504481</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>46.63137523533459</v>
+        <v>67.59521958026333</v>
       </c>
       <c r="C31">
-        <v>4.806216276121401</v>
+        <v>6.966923941125547</v>
       </c>
       <c r="D31">
-        <v>17.77897593070555</v>
+        <v>25.77178510998798</v>
       </c>
       <c r="E31">
-        <v>5.319992793081033</v>
+        <v>7.711676509622677</v>
       </c>
       <c r="F31">
-        <v>14.25189971464404</v>
+        <v>20.65905810809706</v>
       </c>
       <c r="G31">
-        <v>10.71911927716066</v>
+        <v>15.5380624652407</v>
       </c>
       <c r="H31">
-        <v>0.9533331191165386</v>
+        <v>1.381918530058495</v>
       </c>
       <c r="I31">
-        <v>100.4609123461638</v>
+        <v>145.6246442443958</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>51.94503332499635</v>
+        <v>75.29771352414687</v>
       </c>
       <c r="C32">
-        <v>4.272192245441247</v>
+        <v>6.192821281000486</v>
       </c>
       <c r="D32">
-        <v>26.81419320696575</v>
+        <v>38.86892180522776</v>
       </c>
       <c r="E32">
-        <v>5.319992793081033</v>
+        <v>7.711676509622677</v>
       </c>
       <c r="F32">
-        <v>16.357293990671</v>
+        <v>23.7109644195205</v>
       </c>
       <c r="G32">
-        <v>10.06947568460547</v>
+        <v>14.59636170977158</v>
       </c>
       <c r="H32">
-        <v>2.224443944605257</v>
+        <v>3.22447657013649</v>
       </c>
       <c r="I32">
-        <v>117.0026251903661</v>
+        <v>169.6029358194264</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>52.2026652323739</v>
+        <v>75.67116777597153</v>
       </c>
       <c r="C33">
-        <v>4.450200255667966</v>
+        <v>6.450855501042175</v>
       </c>
       <c r="D33">
-        <v>22.73377250155793</v>
+        <v>32.95408587834527</v>
       </c>
       <c r="E33">
-        <v>7.684434034450379</v>
+        <v>11.1390882916772</v>
       </c>
       <c r="F33">
-        <v>15.1426434468093</v>
+        <v>21.95024923985313</v>
       </c>
       <c r="G33">
-        <v>12.66805005482624</v>
+        <v>18.36316473164811</v>
       </c>
       <c r="H33">
-        <v>2.065555091419167</v>
+        <v>2.994156815126741</v>
       </c>
       <c r="I33">
-        <v>116.9473206171049</v>
+        <v>169.5227682336641</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>62.3147175969423</v>
+        <v>90.32924716008941</v>
       </c>
       <c r="C34">
-        <v>3.82717221987445</v>
+        <v>5.547735730896268</v>
       </c>
       <c r="D34">
-        <v>19.81918628340948</v>
+        <v>28.72920307342921</v>
       </c>
       <c r="E34">
-        <v>15.66442322407192</v>
+        <v>22.70660305611122</v>
       </c>
       <c r="F34">
-        <v>12.63236565616176</v>
+        <v>18.31143786854058</v>
       </c>
       <c r="G34">
-        <v>7.146079518107104</v>
+        <v>10.35870831016047</v>
       </c>
       <c r="H34">
-        <v>1.588888531860898</v>
+        <v>2.303197550097493</v>
       </c>
       <c r="I34">
-        <v>122.9928330304279</v>
+        <v>178.2861327493246</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>65.05205661282868</v>
+        <v>94.29719858572642</v>
       </c>
       <c r="C35">
-        <v>2.937132168740858</v>
+        <v>4.257564630687835</v>
       </c>
       <c r="D35">
-        <v>16.32168282163133</v>
+        <v>23.65934370752994</v>
       </c>
       <c r="E35">
-        <v>17.43775415509894</v>
+        <v>25.27716189265211</v>
       </c>
       <c r="F35">
-        <v>9.798181053817778</v>
+        <v>14.20310244931673</v>
       </c>
       <c r="G35">
-        <v>4.547505147886341</v>
+        <v>6.591905288283937</v>
       </c>
       <c r="H35">
-        <v>1.271110825488718</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="I35">
-        <v>117.3654227854926</v>
+        <v>170.128834594275</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>48.95006240173247</v>
+        <v>70.95630784668526</v>
       </c>
       <c r="C36">
-        <v>2.403108138060701</v>
+        <v>3.483461970562773</v>
       </c>
       <c r="D36">
-        <v>16.61314144344617</v>
+        <v>24.08183198802155</v>
       </c>
       <c r="E36">
-        <v>18.32441962061244</v>
+        <v>26.56244131092256</v>
       </c>
       <c r="F36">
-        <v>6.073252719308542</v>
+        <v>8.803575898336817</v>
       </c>
       <c r="G36">
-        <v>4.222683351608743</v>
+        <v>6.121054910549371</v>
       </c>
       <c r="H36">
-        <v>0.7944442659304488</v>
+        <v>1.151598775048747</v>
       </c>
       <c r="I36">
-        <v>97.38111194069951</v>
+        <v>141.1602727001271</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>45.43982766371348</v>
+        <v>65.8679936655743</v>
       </c>
       <c r="C37">
-        <v>2.225100127833983</v>
+        <v>3.225427750521087</v>
       </c>
       <c r="D37">
-        <v>9.618134519889891</v>
+        <v>13.942113256223</v>
       </c>
       <c r="E37">
-        <v>18.02886446544127</v>
+        <v>26.13401483816574</v>
       </c>
       <c r="F37">
-        <v>5.263485690067402</v>
+        <v>7.629765778558575</v>
       </c>
       <c r="G37">
-        <v>5.521970536719127</v>
+        <v>8.004456421487639</v>
       </c>
       <c r="H37">
-        <v>0.3177777063721796</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="I37">
-        <v>86.41516071003733</v>
+        <v>125.2644112205499</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>36.13287500969991</v>
+        <v>52.37695881840842</v>
       </c>
       <c r="C38">
-        <v>1.33506007670039</v>
+        <v>1.935256650312652</v>
       </c>
       <c r="D38">
-        <v>7.869382789000821</v>
+        <v>11.40718357327336</v>
       </c>
       <c r="E38">
-        <v>12.41331651718907</v>
+        <v>17.99391185578625</v>
       </c>
       <c r="F38">
-        <v>3.401021522812784</v>
+        <v>4.930002503068617</v>
       </c>
       <c r="G38">
-        <v>5.521970536719127</v>
+        <v>8.004456421487639</v>
       </c>
       <c r="H38">
-        <v>0.3177777063721796</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="I38">
-        <v>66.99140415849429</v>
+        <v>97.10840933235646</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>25.8598027030205</v>
+        <v>37.48547052690017</v>
       </c>
       <c r="C39">
-        <v>1.869084107380546</v>
+        <v>2.709359310437713</v>
       </c>
       <c r="D39">
-        <v>3.788962083592987</v>
+        <v>5.492347646390878</v>
       </c>
       <c r="E39">
-        <v>5.319992793081033</v>
+        <v>7.711676509622677</v>
       </c>
       <c r="F39">
-        <v>2.429301087723417</v>
+        <v>3.521430359334726</v>
       </c>
       <c r="G39">
-        <v>3.248217962775958</v>
+        <v>4.708503777345669</v>
       </c>
       <c r="H39">
-        <v>0.4766665595582693</v>
+        <v>0.6909592650292476</v>
       </c>
       <c r="I39">
-        <v>42.99202729713271</v>
+        <v>62.31974739506107</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,25 +1525,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>15.23248652369701</v>
+        <v>22.08048263913297</v>
       </c>
       <c r="C40">
-        <v>2.136096122720624</v>
+        <v>3.096410640500243</v>
       </c>
       <c r="D40">
-        <v>4.080420705407833</v>
+        <v>5.914835926882485</v>
       </c>
       <c r="E40">
-        <v>2.364441241369347</v>
+        <v>3.427411782054524</v>
       </c>
       <c r="F40">
-        <v>1.943440870178733</v>
+        <v>2.817144287467781</v>
       </c>
       <c r="G40">
-        <v>4.547505147886341</v>
+        <v>6.591905288283937</v>
       </c>
       <c r="I40">
-        <v>30.30439061125989</v>
+        <v>43.92819056432194</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1551,25 +1551,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>11.75445577410023</v>
+        <v>17.03885023950007</v>
       </c>
       <c r="C41">
-        <v>2.225100127833983</v>
+        <v>3.225427750521087</v>
       </c>
       <c r="D41">
-        <v>1.457293109074226</v>
+        <v>2.11244140245803</v>
       </c>
       <c r="E41">
-        <v>1.182220620684674</v>
+        <v>1.713705891027262</v>
       </c>
       <c r="F41">
-        <v>1.538557355558164</v>
+        <v>2.23023922757866</v>
       </c>
       <c r="G41">
-        <v>5.521970536719127</v>
+        <v>8.004456421487639</v>
       </c>
       <c r="I41">
-        <v>23.67959752397041</v>
+        <v>34.32512093257276</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1577,25 +1577,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>7.6323452560596</v>
+        <v>11.06358221030552</v>
       </c>
       <c r="C42">
-        <v>2.492112143174061</v>
+        <v>3.612479080583618</v>
       </c>
       <c r="D42">
-        <v>2.331668974518761</v>
+        <v>3.379906243932849</v>
       </c>
       <c r="E42">
-        <v>1.477775775855842</v>
+        <v>2.142132363784077</v>
       </c>
       <c r="F42">
-        <v>1.619534058482278</v>
+        <v>2.347620239556484</v>
       </c>
       <c r="G42">
-        <v>4.872326944163936</v>
+        <v>7.062755666018505</v>
       </c>
       <c r="I42">
-        <v>20.42576315225448</v>
+        <v>29.60847580418105</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,28 +1603,28 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>5.345862078083941</v>
+        <v>7.749175725361678</v>
       </c>
       <c r="C43">
-        <v>2.759124158514138</v>
+        <v>3.999530410646148</v>
       </c>
       <c r="D43">
-        <v>4.371879327222679</v>
+        <v>6.33732420737409</v>
       </c>
       <c r="E43">
-        <v>0.5911103103423369</v>
+        <v>0.856852945513631</v>
       </c>
       <c r="F43">
-        <v>1.295627246785822</v>
+        <v>1.878096191645188</v>
       </c>
       <c r="G43">
-        <v>3.248217962775958</v>
+        <v>4.708503777345669</v>
       </c>
       <c r="H43">
-        <v>0.1588888531860898</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="I43">
-        <v>17.77070993691096</v>
+        <v>25.75980301289615</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1632,25 +1632,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>5.925533869683405</v>
+        <v>8.589447791967157</v>
       </c>
       <c r="C44">
-        <v>2.759124158514138</v>
+        <v>3.999530410646148</v>
       </c>
       <c r="D44">
-        <v>2.914586218148453</v>
+        <v>4.224882804916061</v>
       </c>
       <c r="E44">
-        <v>1.182220620684674</v>
+        <v>1.713705891027262</v>
       </c>
       <c r="F44">
-        <v>1.781487464330505</v>
+        <v>2.582382263512133</v>
       </c>
       <c r="G44">
-        <v>1.948930777665574</v>
+        <v>2.825102266407402</v>
       </c>
       <c r="I44">
-        <v>16.51188310902675</v>
+        <v>23.93505142847616</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1658,28 +1658,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>7.986589128703721</v>
+        <v>11.57708180656444</v>
       </c>
       <c r="C45">
-        <v>0.8900400511335933</v>
+        <v>1.290171100208435</v>
       </c>
       <c r="D45">
-        <v>5.537713814482057</v>
+        <v>8.027277329340514</v>
       </c>
       <c r="E45">
-        <v>1.77333093102701</v>
+        <v>2.570558836540892</v>
       </c>
       <c r="F45">
-        <v>2.996138008192214</v>
+        <v>4.343097443179496</v>
       </c>
       <c r="G45">
-        <v>4.222683351608743</v>
+        <v>6.121054910549371</v>
       </c>
       <c r="H45">
-        <v>0.6355554127443591</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="I45">
-        <v>24.0420506978917</v>
+        <v>34.85052044642214</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1687,28 +1687,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>18.54949733118283</v>
+        <v>26.88870613137546</v>
       </c>
       <c r="C46">
-        <v>0.7120320409068744</v>
+        <v>1.032136880166747</v>
       </c>
       <c r="D46">
-        <v>8.743758654445358</v>
+        <v>12.67464841474818</v>
       </c>
       <c r="E46">
-        <v>8.866654655135051</v>
+        <v>12.85279418270446</v>
       </c>
       <c r="F46">
-        <v>9.231344133348982</v>
+        <v>13.38143536547196</v>
       </c>
       <c r="G46">
-        <v>14.29215903621421</v>
+        <v>20.71741662032094</v>
       </c>
       <c r="H46">
-        <v>0.3177777063721796</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="I46">
-        <v>60.71322355760549</v>
+        <v>88.00777710480726</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1716,28 +1716,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>35.2633673223007</v>
+        <v>51.11655071850021</v>
       </c>
       <c r="C47">
-        <v>1.513068086927108</v>
+        <v>2.193290870354339</v>
       </c>
       <c r="D47">
-        <v>14.86438971255711</v>
+        <v>21.5469023050719</v>
       </c>
       <c r="E47">
-        <v>25.71329849989165</v>
+        <v>37.27310312984293</v>
       </c>
       <c r="F47">
-        <v>13.60408609125114</v>
+        <v>19.72001001227447</v>
       </c>
       <c r="G47">
-        <v>20.13895136921094</v>
+        <v>29.19272341954316</v>
       </c>
       <c r="H47">
-        <v>1.747777385046988</v>
+        <v>2.533517305107242</v>
       </c>
       <c r="I47">
-        <v>112.8449384671856</v>
+        <v>163.5760977606942</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1745,28 +1745,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>50.72128176495305</v>
+        <v>73.52380582797976</v>
       </c>
       <c r="C48">
-        <v>2.314104132947342</v>
+        <v>3.354444860541931</v>
       </c>
       <c r="D48">
-        <v>15.73876557800164</v>
+        <v>22.81436714654673</v>
       </c>
       <c r="E48">
-        <v>28.07773974126101</v>
+        <v>40.70051491189746</v>
       </c>
       <c r="F48">
-        <v>14.33287641756816</v>
+        <v>20.77643912007489</v>
       </c>
       <c r="G48">
-        <v>25.66092190593006</v>
+        <v>37.19717984103079</v>
       </c>
       <c r="H48">
-        <v>2.701110504163525</v>
+        <v>3.915435835165739</v>
       </c>
       <c r="I48">
-        <v>139.5468000448248</v>
+        <v>202.2821875432373</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1774,28 +1774,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>55.16543216721559</v>
+        <v>79.96589167195515</v>
       </c>
       <c r="C49">
-        <v>4.005180230101169</v>
+        <v>5.805769950937956</v>
       </c>
       <c r="D49">
-        <v>19.81918628340948</v>
+        <v>28.72920307342921</v>
       </c>
       <c r="E49">
-        <v>13.29998198270258</v>
+        <v>19.27919127405669</v>
       </c>
       <c r="F49">
-        <v>14.65678322926461</v>
+        <v>21.24596316798618</v>
       </c>
       <c r="G49">
-        <v>17.54037699899016</v>
+        <v>25.42592039766662</v>
       </c>
       <c r="H49">
-        <v>1.112221972302628</v>
+        <v>1.612238285068245</v>
       </c>
       <c r="I49">
-        <v>125.5991628639862</v>
+        <v>182.0641778211001</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_여름_배출량/경기대로_여름_배출량_PM10_재비산.xlsx
+++ b/output/경기대로_여름_배출량/경기대로_여름_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>70.48949003190441</v>
+        <v>47.90917348899084</v>
       </c>
       <c r="C2">
-        <v>6.579872611063017</v>
+        <v>4.472102980404557</v>
       </c>
       <c r="D2">
-        <v>29.57417963441242</v>
+        <v>20.10050721403076</v>
       </c>
       <c r="E2">
-        <v>14.56650007373172</v>
+        <v>9.900326684785869</v>
       </c>
       <c r="F2">
-        <v>20.77643912007489</v>
+        <v>14.12099911400411</v>
       </c>
       <c r="G2">
-        <v>24.95507001993205</v>
+        <v>16.96106438667247</v>
       </c>
       <c r="H2">
-        <v>2.072877795087743</v>
+        <v>1.40886055299005</v>
       </c>
       <c r="I2">
-        <v>169.0144292862063</v>
+        <v>114.8730344218787</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>66.42817504331127</v>
+        <v>45.14884362571786</v>
       </c>
       <c r="C3">
-        <v>8.386112151354824</v>
+        <v>5.699739092672475</v>
       </c>
       <c r="D3">
-        <v>36.33399212227813</v>
+        <v>24.69490886295207</v>
       </c>
       <c r="E3">
-        <v>5.5695441458386</v>
+        <v>3.785419026535775</v>
       </c>
       <c r="F3">
-        <v>22.88929733567572</v>
+        <v>15.55703292220791</v>
       </c>
       <c r="G3">
-        <v>22.12996775352465</v>
+        <v>15.04094389006804</v>
       </c>
       <c r="H3">
-        <v>5.297354365224233</v>
+        <v>3.600421413196795</v>
       </c>
       <c r="I3">
-        <v>167.0344429172074</v>
+        <v>113.5273088333509</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>62.08676936584961</v>
+        <v>42.19814618566745</v>
       </c>
       <c r="C4">
-        <v>6.579872611063017</v>
+        <v>4.472102980404557</v>
       </c>
       <c r="D4">
-        <v>18.16699606113906</v>
+        <v>12.34745443147603</v>
       </c>
       <c r="E4">
-        <v>5.141117673081784</v>
+        <v>3.494232947571485</v>
       </c>
       <c r="F4">
-        <v>18.19405685656275</v>
+        <v>12.36584668175501</v>
       </c>
       <c r="G4">
-        <v>21.18826699805552</v>
+        <v>14.40090372453323</v>
       </c>
       <c r="H4">
-        <v>4.606395100194987</v>
+        <v>3.130801228866778</v>
       </c>
       <c r="I4">
-        <v>135.9634746659467</v>
+        <v>92.40948818027454</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>72.0299888206811</v>
+        <v>48.95619516126679</v>
       </c>
       <c r="C5">
-        <v>7.09594105114639</v>
+        <v>4.822856155338249</v>
       </c>
       <c r="D5">
-        <v>24.50432026851315</v>
+        <v>16.65470597733977</v>
       </c>
       <c r="E5">
-        <v>8.996955927893124</v>
+        <v>6.114907658250096</v>
       </c>
       <c r="F5">
-        <v>21.95024923985313</v>
+        <v>14.91879567411733</v>
       </c>
       <c r="G5">
-        <v>17.42146397617897</v>
+        <v>11.84074306239399</v>
       </c>
       <c r="H5">
-        <v>3.915435835165739</v>
+        <v>2.661181044536761</v>
       </c>
       <c r="I5">
-        <v>155.9143551194316</v>
+        <v>105.969384733243</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>66.98835642104825</v>
+        <v>45.52957877927273</v>
       </c>
       <c r="C6">
-        <v>7.353975271188077</v>
+        <v>4.998232742805094</v>
       </c>
       <c r="D6">
-        <v>29.99666791490403</v>
+        <v>20.38765731708834</v>
       </c>
       <c r="E6">
-        <v>7.711676509622677</v>
+        <v>5.241349421357223</v>
       </c>
       <c r="F6">
-        <v>23.47620239556485</v>
+        <v>15.95593120226453</v>
       </c>
       <c r="G6">
-        <v>17.89231435391355</v>
+        <v>12.1607631451614</v>
       </c>
       <c r="H6">
-        <v>3.45479632514624</v>
+        <v>2.348100921650083</v>
       </c>
       <c r="I6">
-        <v>156.8739891913877</v>
+        <v>106.6216135295994</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>71.84326169476883</v>
+        <v>48.82928344341516</v>
       </c>
       <c r="C7">
-        <v>7.612009491229764</v>
+        <v>5.173609330271939</v>
       </c>
       <c r="D7">
-        <v>34.6440390003117</v>
+        <v>23.54630845072175</v>
       </c>
       <c r="E7">
-        <v>7.711676509622677</v>
+        <v>5.241349421357223</v>
       </c>
       <c r="F7">
-        <v>24.65001251534309</v>
+        <v>16.75372776237775</v>
       </c>
       <c r="G7">
-        <v>16.95061359844441</v>
+        <v>11.52072297962659</v>
       </c>
       <c r="H7">
-        <v>2.994156815126741</v>
+        <v>2.035020798763405</v>
       </c>
       <c r="I7">
-        <v>166.4057696248472</v>
+        <v>113.1000221865338</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>73.4304422650236</v>
+        <v>49.90803304515401</v>
       </c>
       <c r="C8">
-        <v>6.966923941125547</v>
+        <v>4.735167861604825</v>
       </c>
       <c r="D8">
-        <v>33.79906243932849</v>
+        <v>22.97200824460658</v>
       </c>
       <c r="E8">
-        <v>8.568529455136309</v>
+        <v>5.823721579285804</v>
       </c>
       <c r="F8">
-        <v>23.00667834765355</v>
+        <v>15.63681257821924</v>
       </c>
       <c r="G8">
-        <v>14.59636170977158</v>
+        <v>9.920622565789561</v>
       </c>
       <c r="H8">
-        <v>1.612238285068245</v>
+        <v>1.095780430103372</v>
       </c>
       <c r="I8">
-        <v>161.9802364431073</v>
+        <v>110.0921463047634</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>82.11325361994696</v>
+        <v>55.80942792525485</v>
       </c>
       <c r="C9">
-        <v>6.450855501042175</v>
+        <v>4.384414686671135</v>
       </c>
       <c r="D9">
-        <v>29.57417963441242</v>
+        <v>20.10050721403076</v>
       </c>
       <c r="E9">
-        <v>13.7096471282181</v>
+        <v>9.317954526857289</v>
       </c>
       <c r="F9">
-        <v>20.42429608414142</v>
+        <v>13.88166014597014</v>
       </c>
       <c r="G9">
-        <v>15.5380624652407</v>
+        <v>10.56066273132437</v>
       </c>
       <c r="H9">
-        <v>2.533517305107242</v>
+        <v>1.721940675876728</v>
       </c>
       <c r="I9">
-        <v>170.343811738109</v>
+        <v>115.7765679059853</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>89.1622026231374</v>
+        <v>60.60034527415399</v>
       </c>
       <c r="C10">
-        <v>7.870043711271451</v>
+        <v>5.348985917738784</v>
       </c>
       <c r="D10">
-        <v>27.03924995146279</v>
+        <v>18.37760659568527</v>
       </c>
       <c r="E10">
-        <v>25.70558836540892</v>
+        <v>17.47116473785742</v>
       </c>
       <c r="F10">
-        <v>19.60262900029664</v>
+        <v>13.32320255389088</v>
       </c>
       <c r="G10">
-        <v>11.77125944336418</v>
+        <v>8.00050206918513</v>
       </c>
       <c r="H10">
-        <v>1.381918530058495</v>
+        <v>0.9392403686600335</v>
       </c>
       <c r="I10">
-        <v>182.5328916249999</v>
+        <v>124.0610475171715</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>94.76401640050727</v>
+        <v>64.40769680970293</v>
       </c>
       <c r="C11">
-        <v>4.902650180792051</v>
+        <v>3.332155161870062</v>
       </c>
       <c r="D11">
-        <v>23.23685542703833</v>
+        <v>15.79325566816703</v>
       </c>
       <c r="E11">
-        <v>27.41929425643619</v>
+        <v>18.63590905371458</v>
       </c>
       <c r="F11">
-        <v>10.91643411393765</v>
+        <v>7.419508009053006</v>
       </c>
       <c r="G11">
-        <v>2.354251888672835</v>
+        <v>1.600100413837026</v>
       </c>
       <c r="H11">
-        <v>1.612238285068245</v>
+        <v>1.095780430103372</v>
       </c>
       <c r="I11">
-        <v>165.2057405524526</v>
+        <v>112.284405546448</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>69.04235480608391</v>
+        <v>46.92560767564069</v>
       </c>
       <c r="C12">
-        <v>4.12854752066699</v>
+        <v>2.806025399469526</v>
       </c>
       <c r="D12">
-        <v>23.65934370752994</v>
+        <v>16.08040577122461</v>
       </c>
       <c r="E12">
-        <v>16.70863243751581</v>
+        <v>11.35625707960732</v>
       </c>
       <c r="F12">
-        <v>9.742623994159409</v>
+        <v>6.621711448939779</v>
       </c>
       <c r="G12">
-        <v>5.179354155080236</v>
+        <v>3.520220910441456</v>
       </c>
       <c r="H12">
-        <v>0.4606395100194985</v>
+        <v>0.3130801228866777</v>
       </c>
       <c r="I12">
-        <v>128.9214961310558</v>
+        <v>87.62330840821005</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>60.21949810672629</v>
+        <v>40.92902900715108</v>
       </c>
       <c r="C13">
-        <v>2.838376420458556</v>
+        <v>1.9291424621353</v>
       </c>
       <c r="D13">
-        <v>13.942113256223</v>
+        <v>9.475953400900215</v>
       </c>
       <c r="E13">
-        <v>22.2781765833544</v>
+        <v>15.1416761061431</v>
       </c>
       <c r="F13">
-        <v>6.103812622846859</v>
+        <v>4.148542112588776</v>
       </c>
       <c r="G13">
-        <v>8.475306799222206</v>
+        <v>5.760361489813294</v>
       </c>
       <c r="H13">
-        <v>1.151598775048747</v>
+        <v>0.7827003072166946</v>
       </c>
       <c r="I13">
-        <v>115.0088825638801</v>
+        <v>78.16740488594846</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>47.70878067060021</v>
+        <v>32.42594391109181</v>
       </c>
       <c r="C14">
-        <v>2.451325090396026</v>
+        <v>1.666077580935031</v>
       </c>
       <c r="D14">
-        <v>14.36460153671461</v>
+        <v>9.763103503957799</v>
       </c>
       <c r="E14">
-        <v>14.13807360097491</v>
+        <v>9.609140605821581</v>
       </c>
       <c r="F14">
-        <v>4.108335419223847</v>
+        <v>2.792287960396292</v>
       </c>
       <c r="G14">
-        <v>6.591905288283937</v>
+        <v>4.48028115874367</v>
       </c>
       <c r="H14">
-        <v>1.151598775048747</v>
+        <v>0.7827003072166946</v>
       </c>
       <c r="I14">
-        <v>90.51462038124228</v>
+        <v>61.51953502816288</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,25 +815,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>33.70424622717552</v>
+        <v>22.90756507221946</v>
       </c>
       <c r="C15">
-        <v>3.483461970562773</v>
+        <v>2.367583930802413</v>
       </c>
       <c r="D15">
-        <v>9.294742170815336</v>
+        <v>6.317302267266809</v>
       </c>
       <c r="E15">
-        <v>8.140102982379494</v>
+        <v>5.532535500321516</v>
       </c>
       <c r="F15">
-        <v>3.521430359334726</v>
+        <v>2.393389680339679</v>
       </c>
       <c r="G15">
-        <v>5.650204532814803</v>
+        <v>3.840240993208862</v>
       </c>
       <c r="I15">
-        <v>63.79418824308265</v>
+        <v>43.35861744415874</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,25 +841,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>20.72671097626859</v>
+        <v>14.08720068153108</v>
       </c>
       <c r="C16">
-        <v>2.838376420458556</v>
+        <v>1.9291424621353</v>
       </c>
       <c r="D16">
-        <v>6.33732420737409</v>
+        <v>4.307251545863735</v>
       </c>
       <c r="E16">
-        <v>4.284264727568154</v>
+        <v>2.911860789642902</v>
       </c>
       <c r="F16">
-        <v>2.699763275489957</v>
+        <v>1.834932088260421</v>
       </c>
       <c r="G16">
-        <v>5.179354155080236</v>
+        <v>3.520220910441456</v>
       </c>
       <c r="I16">
-        <v>42.06579376223959</v>
+        <v>28.59060847787489</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -867,25 +867,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>16.10521460993842</v>
+        <v>10.9461356647032</v>
       </c>
       <c r="C17">
-        <v>3.999530410646148</v>
+        <v>2.718337105736104</v>
       </c>
       <c r="D17">
-        <v>2.11244140245803</v>
+        <v>1.435750515287911</v>
       </c>
       <c r="E17">
-        <v>0.856852945513631</v>
+        <v>0.5823721579285805</v>
       </c>
       <c r="F17">
-        <v>1.525953155711715</v>
+        <v>1.037135528147194</v>
       </c>
       <c r="G17">
-        <v>6.121054910549371</v>
+        <v>4.160261075976267</v>
       </c>
       <c r="I17">
-        <v>30.72104743481732</v>
+        <v>20.87999204777926</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,25 +893,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>10.50340083256854</v>
+        <v>7.138784129154263</v>
       </c>
       <c r="C18">
-        <v>3.612479080583618</v>
+        <v>2.455272224535836</v>
       </c>
       <c r="D18">
-        <v>3.802394524424455</v>
+        <v>2.58435092751824</v>
       </c>
       <c r="E18">
-        <v>1.713705891027262</v>
+        <v>1.164744315857161</v>
       </c>
       <c r="F18">
-        <v>2.817144287467781</v>
+        <v>1.914711744271744</v>
       </c>
       <c r="G18">
-        <v>3.766803021876536</v>
+        <v>2.560160662139241</v>
       </c>
       <c r="I18">
-        <v>26.21592763794819</v>
+        <v>17.81802400347648</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -919,28 +919,28 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>6.255358718063042</v>
+        <v>4.251542548029649</v>
       </c>
       <c r="C19">
-        <v>3.225427750521087</v>
+        <v>2.192207343335567</v>
       </c>
       <c r="D19">
-        <v>5.069859365899274</v>
+        <v>3.445801236690987</v>
       </c>
       <c r="E19">
-        <v>0.4284264727568155</v>
+        <v>0.2911860789642903</v>
       </c>
       <c r="F19">
-        <v>1.291191131756066</v>
+        <v>0.8775762161245491</v>
       </c>
       <c r="G19">
-        <v>8.004456421487639</v>
+        <v>5.440341407045887</v>
       </c>
       <c r="H19">
-        <v>0.2303197550097492</v>
+        <v>0.1565400614433389</v>
       </c>
       <c r="I19">
-        <v>24.50503961549367</v>
+        <v>16.65519489163427</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,28 +948,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>7.562448599449348</v>
+        <v>5.139924572991067</v>
       </c>
       <c r="C20">
-        <v>2.451325090396026</v>
+        <v>1.666077580935031</v>
       </c>
       <c r="D20">
-        <v>6.33732420737409</v>
+        <v>4.307251545863735</v>
       </c>
       <c r="E20">
-        <v>1.285279418270446</v>
+        <v>0.8735582368928712</v>
       </c>
       <c r="F20">
-        <v>2.582382263512133</v>
+        <v>1.755152432249098</v>
       </c>
       <c r="G20">
-        <v>6.591905288283937</v>
+        <v>4.48028115874367</v>
       </c>
       <c r="H20">
-        <v>0.2303197550097492</v>
+        <v>0.1565400614433389</v>
       </c>
       <c r="I20">
-        <v>27.04098462229572</v>
+        <v>18.37878558911881</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,25 +977,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>12.9775352509069</v>
+        <v>8.820364390688374</v>
       </c>
       <c r="C21">
-        <v>1.161153990187591</v>
+        <v>0.7891946436008044</v>
       </c>
       <c r="D21">
-        <v>8.872253890323726</v>
+        <v>6.030152164209228</v>
       </c>
       <c r="E21">
-        <v>2.998985309297708</v>
+        <v>2.038302552750032</v>
       </c>
       <c r="F21">
-        <v>4.577859467135145</v>
+        <v>3.111406584441583</v>
       </c>
       <c r="G21">
-        <v>10.82955868789504</v>
+        <v>7.360461903650317</v>
       </c>
       <c r="I21">
-        <v>41.41734659574611</v>
+        <v>28.14988223934034</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>26.09511584624807</v>
+        <v>17.73591256976547</v>
       </c>
       <c r="C22">
-        <v>1.032136880166747</v>
+        <v>0.7015063498673816</v>
       </c>
       <c r="D22">
-        <v>13.09713669523979</v>
+        <v>8.90165319478505</v>
       </c>
       <c r="E22">
-        <v>12.42436770994765</v>
+        <v>8.444396289964418</v>
       </c>
       <c r="F22">
-        <v>12.91191131756067</v>
+        <v>8.775762161245488</v>
       </c>
       <c r="G22">
-        <v>19.7757158648518</v>
+        <v>13.44084347623101</v>
       </c>
       <c r="H22">
-        <v>0.4606395100194985</v>
+        <v>0.3130801228866777</v>
       </c>
       <c r="I22">
-        <v>85.79702382403424</v>
+        <v>58.3131541647455</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>49.57605192972351</v>
+        <v>33.69506108960811</v>
       </c>
       <c r="C23">
-        <v>2.322307980375183</v>
+        <v>1.578389287201609</v>
       </c>
       <c r="D23">
-        <v>22.39187886605512</v>
+        <v>15.21895546205186</v>
       </c>
       <c r="E23">
-        <v>35.9878237115725</v>
+        <v>24.45963063300038</v>
       </c>
       <c r="F23">
-        <v>19.01572394040753</v>
+        <v>12.92430427383427</v>
       </c>
       <c r="G23">
-        <v>27.78017228633945</v>
+        <v>18.88118488327691</v>
       </c>
       <c r="H23">
-        <v>2.763837060116991</v>
+        <v>1.878480737320067</v>
       </c>
       <c r="I23">
-        <v>159.8377957745903</v>
+        <v>108.6360063662932</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>71.3297620985099</v>
+        <v>48.48027621932317</v>
       </c>
       <c r="C24">
-        <v>3.483461970562773</v>
+        <v>2.367583930802413</v>
       </c>
       <c r="D24">
-        <v>23.65934370752994</v>
+        <v>16.08040577122461</v>
       </c>
       <c r="E24">
-        <v>38.9868090208702</v>
+        <v>26.49793318575041</v>
       </c>
       <c r="F24">
-        <v>20.07215304820794</v>
+        <v>13.64232117793617</v>
       </c>
       <c r="G24">
-        <v>35.31377833009252</v>
+        <v>24.00150620755538</v>
       </c>
       <c r="H24">
-        <v>4.145755590175487</v>
+        <v>2.817721105980099</v>
       </c>
       <c r="I24">
-        <v>196.9910637659488</v>
+        <v>133.8877475985722</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>77.53843903509487</v>
+        <v>52.7000908378899</v>
       </c>
       <c r="C25">
-        <v>5.9347870609588</v>
+        <v>4.033661511737444</v>
       </c>
       <c r="D25">
-        <v>29.57417963441242</v>
+        <v>20.10050721403076</v>
       </c>
       <c r="E25">
-        <v>18.42233832854306</v>
+        <v>12.52100139546448</v>
       </c>
       <c r="F25">
-        <v>20.42429608414142</v>
+        <v>13.88166014597014</v>
       </c>
       <c r="G25">
-        <v>24.01336926446291</v>
+        <v>16.32102422113767</v>
       </c>
       <c r="H25">
-        <v>1.842558040077994</v>
+        <v>1.252320491546711</v>
       </c>
       <c r="I25">
-        <v>177.7499674476915</v>
+        <v>120.8102658177771</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>72.68353376137429</v>
+        <v>49.40038617374748</v>
       </c>
       <c r="C26">
-        <v>6.321838391021331</v>
+        <v>4.296726392937712</v>
       </c>
       <c r="D26">
-        <v>28.72920307342921</v>
+        <v>19.5262070079156</v>
       </c>
       <c r="E26">
-        <v>14.99492654648854</v>
+        <v>10.19151276375016</v>
       </c>
       <c r="F26">
-        <v>21.59810620391966</v>
+        <v>14.67945670608337</v>
       </c>
       <c r="G26">
-        <v>26.36762115313575</v>
+        <v>17.92112463497468</v>
       </c>
       <c r="H26">
-        <v>1.842558040077994</v>
+        <v>1.252320491546711</v>
       </c>
       <c r="I26">
-        <v>172.5377871694468</v>
+        <v>117.2677341709557</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>68.48217342834684</v>
+        <v>46.54487252208579</v>
       </c>
       <c r="C27">
-        <v>8.128077931313136</v>
+        <v>5.52436250520563</v>
       </c>
       <c r="D27">
-        <v>35.06652728080331</v>
+        <v>23.83345855377934</v>
       </c>
       <c r="E27">
-        <v>5.997970618595416</v>
+        <v>4.076605105500064</v>
       </c>
       <c r="F27">
-        <v>23.7109644195205</v>
+        <v>16.11549051428717</v>
       </c>
       <c r="G27">
-        <v>23.07166850899378</v>
+        <v>15.68098405560285</v>
       </c>
       <c r="H27">
-        <v>4.836714855204734</v>
+        <v>3.287341290310116</v>
       </c>
       <c r="I27">
-        <v>169.2940970427777</v>
+        <v>115.063114546771</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>69.41580905790849</v>
+        <v>47.17943111134397</v>
       </c>
       <c r="C28">
-        <v>7.482992381208921</v>
+        <v>5.085921036538516</v>
       </c>
       <c r="D28">
-        <v>27.4617382319544</v>
+        <v>18.66475669874285</v>
       </c>
       <c r="E28">
-        <v>5.997970618595416</v>
+        <v>4.076605105500064</v>
       </c>
       <c r="F28">
-        <v>21.24596316798618</v>
+        <v>14.4401177380494</v>
       </c>
       <c r="G28">
-        <v>24.48421964219748</v>
+        <v>16.64104430390507</v>
       </c>
       <c r="H28">
-        <v>2.994156815126741</v>
+        <v>2.035020798763405</v>
       </c>
       <c r="I28">
-        <v>159.0828499149776</v>
+        <v>108.1228967928433</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>72.45012485398388</v>
+        <v>49.24174652643294</v>
       </c>
       <c r="C29">
-        <v>7.999060821292296</v>
+        <v>5.436674211472208</v>
       </c>
       <c r="D29">
-        <v>23.23685542703833</v>
+        <v>15.79325566816703</v>
       </c>
       <c r="E29">
-        <v>6.42639709135223</v>
+        <v>4.367791184464354</v>
       </c>
       <c r="F29">
-        <v>21.24596316798618</v>
+        <v>14.4401177380494</v>
       </c>
       <c r="G29">
-        <v>19.7757158648518</v>
+        <v>13.44084347623101</v>
       </c>
       <c r="H29">
-        <v>1.842558040077994</v>
+        <v>1.252320491546711</v>
       </c>
       <c r="I29">
-        <v>152.9766752665827</v>
+        <v>103.9727492963636</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>75.20434996119073</v>
+        <v>51.1136943647445</v>
       </c>
       <c r="C30">
-        <v>6.966923941125547</v>
+        <v>4.735167861604825</v>
       </c>
       <c r="D30">
-        <v>19.43446090261388</v>
+        <v>13.20890474064879</v>
       </c>
       <c r="E30">
-        <v>7.283250036865859</v>
+        <v>4.950163342392934</v>
       </c>
       <c r="F30">
-        <v>26.41072769501044</v>
+        <v>17.95042260254759</v>
       </c>
       <c r="G30">
-        <v>22.12996775352465</v>
+        <v>15.04094389006804</v>
       </c>
       <c r="H30">
-        <v>2.763837060116991</v>
+        <v>1.878480737320067</v>
       </c>
       <c r="I30">
-        <v>160.1935173504481</v>
+        <v>108.8777775393268</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>67.59521958026333</v>
+        <v>45.94204186229051</v>
       </c>
       <c r="C31">
-        <v>6.966923941125547</v>
+        <v>4.735167861604825</v>
       </c>
       <c r="D31">
-        <v>25.77178510998798</v>
+        <v>17.51615628651252</v>
       </c>
       <c r="E31">
-        <v>7.711676509622677</v>
+        <v>5.241349421357223</v>
       </c>
       <c r="F31">
-        <v>20.65905810809706</v>
+        <v>14.04121945799278</v>
       </c>
       <c r="G31">
-        <v>15.5380624652407</v>
+        <v>10.56066273132437</v>
       </c>
       <c r="H31">
-        <v>1.381918530058495</v>
+        <v>0.9392403686600335</v>
       </c>
       <c r="I31">
-        <v>145.6246442443958</v>
+        <v>98.97583798974226</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>75.29771352414687</v>
+        <v>51.17715022367032</v>
       </c>
       <c r="C32">
-        <v>6.192821281000486</v>
+        <v>4.209038099204289</v>
       </c>
       <c r="D32">
-        <v>38.86892180522776</v>
+        <v>26.41780948129757</v>
       </c>
       <c r="E32">
-        <v>7.711676509622677</v>
+        <v>5.241349421357223</v>
       </c>
       <c r="F32">
-        <v>23.7109644195205</v>
+        <v>16.11549051428717</v>
       </c>
       <c r="G32">
-        <v>14.59636170977158</v>
+        <v>9.920622565789561</v>
       </c>
       <c r="H32">
-        <v>3.22447657013649</v>
+        <v>2.191560860206744</v>
       </c>
       <c r="I32">
-        <v>169.6029358194264</v>
+        <v>115.2730211658129</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>75.67116777597153</v>
+        <v>51.43097365937358</v>
       </c>
       <c r="C33">
-        <v>6.450855501042175</v>
+        <v>4.384414686671135</v>
       </c>
       <c r="D33">
-        <v>32.95408587834527</v>
+        <v>22.39770803849141</v>
       </c>
       <c r="E33">
-        <v>11.1390882916772</v>
+        <v>7.570838053071549</v>
       </c>
       <c r="F33">
-        <v>21.95024923985313</v>
+        <v>14.91879567411733</v>
       </c>
       <c r="G33">
-        <v>18.36316473164811</v>
+        <v>12.4807832279288</v>
       </c>
       <c r="H33">
-        <v>2.994156815126741</v>
+        <v>2.035020798763405</v>
       </c>
       <c r="I33">
-        <v>169.5227682336641</v>
+        <v>115.2185341384172</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>90.32924716008941</v>
+        <v>61.39354351072664</v>
       </c>
       <c r="C34">
-        <v>5.547735730896268</v>
+        <v>3.770596630537177</v>
       </c>
       <c r="D34">
-        <v>28.72920307342921</v>
+        <v>19.5262070079156</v>
       </c>
       <c r="E34">
-        <v>22.70660305611122</v>
+        <v>15.43286218510738</v>
       </c>
       <c r="F34">
-        <v>18.31143786854058</v>
+        <v>12.44562633776633</v>
       </c>
       <c r="G34">
-        <v>10.35870831016047</v>
+        <v>7.040441820882911</v>
       </c>
       <c r="H34">
-        <v>2.303197550097493</v>
+        <v>1.565400614433389</v>
       </c>
       <c r="I34">
-        <v>178.2861327493246</v>
+        <v>121.1746781073694</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>94.29719858572642</v>
+        <v>64.09041751507382</v>
       </c>
       <c r="C35">
-        <v>4.257564630687835</v>
+        <v>2.89371369320295</v>
       </c>
       <c r="D35">
-        <v>23.65934370752994</v>
+        <v>16.08040577122461</v>
       </c>
       <c r="E35">
-        <v>25.27716189265211</v>
+        <v>17.17997865889312</v>
       </c>
       <c r="F35">
-        <v>14.20310244931673</v>
+        <v>9.653338377370041</v>
       </c>
       <c r="G35">
-        <v>6.591905288283937</v>
+        <v>4.48028115874367</v>
       </c>
       <c r="H35">
-        <v>1.842558040077994</v>
+        <v>1.252320491546711</v>
       </c>
       <c r="I35">
-        <v>170.128834594275</v>
+        <v>115.6304556660549</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>70.95630784668526</v>
+        <v>48.22645278361991</v>
       </c>
       <c r="C36">
-        <v>3.483461970562773</v>
+        <v>2.367583930802413</v>
       </c>
       <c r="D36">
-        <v>24.08183198802155</v>
+        <v>16.36755587428219</v>
       </c>
       <c r="E36">
-        <v>26.56244131092256</v>
+        <v>18.05353689578599</v>
       </c>
       <c r="F36">
-        <v>8.803575898336817</v>
+        <v>5.983474200849197</v>
       </c>
       <c r="G36">
-        <v>6.121054910549371</v>
+        <v>4.160261075976267</v>
       </c>
       <c r="H36">
-        <v>1.151598775048747</v>
+        <v>0.7827003072166946</v>
       </c>
       <c r="I36">
-        <v>141.1602727001271</v>
+        <v>95.94156506853267</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>65.8679936655743</v>
+        <v>44.76810847216294</v>
       </c>
       <c r="C37">
-        <v>3.225427750521087</v>
+        <v>2.192207343335567</v>
       </c>
       <c r="D37">
-        <v>13.942113256223</v>
+        <v>9.475953400900215</v>
       </c>
       <c r="E37">
-        <v>26.13401483816574</v>
+        <v>17.76235081682171</v>
       </c>
       <c r="F37">
-        <v>7.629765778558575</v>
+        <v>5.185677640735972</v>
       </c>
       <c r="G37">
-        <v>8.004456421487639</v>
+        <v>5.440341407045887</v>
       </c>
       <c r="H37">
-        <v>0.4606395100194985</v>
+        <v>0.3130801228866777</v>
       </c>
       <c r="I37">
-        <v>125.2644112205499</v>
+        <v>85.13771920388898</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>52.37695881840842</v>
+        <v>35.59873685738258</v>
       </c>
       <c r="C38">
-        <v>1.935256650312652</v>
+        <v>1.31532440600134</v>
       </c>
       <c r="D38">
-        <v>11.40718357327336</v>
+        <v>7.75305278255472</v>
       </c>
       <c r="E38">
-        <v>17.99391185578625</v>
+        <v>12.22981531650019</v>
       </c>
       <c r="F38">
-        <v>4.930002503068617</v>
+        <v>3.350745552475551</v>
       </c>
       <c r="G38">
-        <v>8.004456421487639</v>
+        <v>5.440341407045887</v>
       </c>
       <c r="H38">
-        <v>0.4606395100194985</v>
+        <v>0.3130801228866777</v>
       </c>
       <c r="I38">
-        <v>97.10840933235646</v>
+        <v>66.00109644484694</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>37.48547052690017</v>
+        <v>25.47752735871498</v>
       </c>
       <c r="C39">
-        <v>2.709359310437713</v>
+        <v>1.841454168401877</v>
       </c>
       <c r="D39">
-        <v>5.492347646390878</v>
+        <v>3.73295133974857</v>
       </c>
       <c r="E39">
-        <v>7.711676509622677</v>
+        <v>5.241349421357223</v>
       </c>
       <c r="F39">
-        <v>3.521430359334726</v>
+        <v>2.393389680339679</v>
       </c>
       <c r="G39">
-        <v>4.708503777345669</v>
+        <v>3.200200827674053</v>
       </c>
       <c r="H39">
-        <v>0.6909592650292476</v>
+        <v>0.4696201843300167</v>
       </c>
       <c r="I39">
-        <v>62.31974739506107</v>
+        <v>42.3564929805664</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,25 +1525,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>22.08048263913297</v>
+        <v>15.0073106359554</v>
       </c>
       <c r="C40">
-        <v>3.096410640500243</v>
+        <v>2.104519049602144</v>
       </c>
       <c r="D40">
-        <v>5.914835926882485</v>
+        <v>4.020101442806152</v>
       </c>
       <c r="E40">
-        <v>3.427411782054524</v>
+        <v>2.329488631714322</v>
       </c>
       <c r="F40">
-        <v>2.817144287467781</v>
+        <v>1.914711744271744</v>
       </c>
       <c r="G40">
-        <v>6.591905288283937</v>
+        <v>4.48028115874367</v>
       </c>
       <c r="I40">
-        <v>43.92819056432194</v>
+        <v>29.85641266309344</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1551,25 +1551,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>17.03885023950007</v>
+        <v>11.58069425396135</v>
       </c>
       <c r="C41">
-        <v>3.225427750521087</v>
+        <v>2.192207343335567</v>
       </c>
       <c r="D41">
-        <v>2.11244140245803</v>
+        <v>1.435750515287911</v>
       </c>
       <c r="E41">
-        <v>1.713705891027262</v>
+        <v>1.164744315857161</v>
       </c>
       <c r="F41">
-        <v>2.23023922757866</v>
+        <v>1.51581346421513</v>
       </c>
       <c r="G41">
-        <v>8.004456421487639</v>
+        <v>5.440341407045887</v>
       </c>
       <c r="I41">
-        <v>34.32512093257276</v>
+        <v>23.32955129970301</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1577,25 +1577,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>11.06358221030552</v>
+        <v>7.519519282709153</v>
       </c>
       <c r="C42">
-        <v>3.612479080583618</v>
+        <v>2.455272224535836</v>
       </c>
       <c r="D42">
-        <v>3.379906243932849</v>
+        <v>2.297200824460659</v>
       </c>
       <c r="E42">
-        <v>2.142132363784077</v>
+        <v>1.455930394821451</v>
       </c>
       <c r="F42">
-        <v>2.347620239556484</v>
+        <v>1.595593120226453</v>
       </c>
       <c r="G42">
-        <v>7.062755666018505</v>
+        <v>4.800301241511079</v>
       </c>
       <c r="I42">
-        <v>29.60847580418105</v>
+        <v>20.12381708826463</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,28 +1603,28 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>7.749175725361678</v>
+        <v>5.266836290842699</v>
       </c>
       <c r="C43">
-        <v>3.999530410646148</v>
+        <v>2.718337105736104</v>
       </c>
       <c r="D43">
-        <v>6.33732420737409</v>
+        <v>4.307251545863735</v>
       </c>
       <c r="E43">
-        <v>0.856852945513631</v>
+        <v>0.5823721579285805</v>
       </c>
       <c r="F43">
-        <v>1.878096191645188</v>
+        <v>1.276474496181162</v>
       </c>
       <c r="G43">
-        <v>4.708503777345669</v>
+        <v>3.200200827674053</v>
       </c>
       <c r="H43">
-        <v>0.2303197550097492</v>
+        <v>0.1565400614433389</v>
       </c>
       <c r="I43">
-        <v>25.75980301289615</v>
+        <v>17.50801248566967</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1632,25 +1632,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>8.589447791967157</v>
+        <v>5.837939021175037</v>
       </c>
       <c r="C44">
-        <v>3.999530410646148</v>
+        <v>2.718337105736104</v>
       </c>
       <c r="D44">
-        <v>4.224882804916061</v>
+        <v>2.871501030575822</v>
       </c>
       <c r="E44">
-        <v>1.713705891027262</v>
+        <v>1.164744315857161</v>
       </c>
       <c r="F44">
-        <v>2.582382263512133</v>
+        <v>1.755152432249098</v>
       </c>
       <c r="G44">
-        <v>2.825102266407402</v>
+        <v>1.920120496604431</v>
       </c>
       <c r="I44">
-        <v>23.93505142847616</v>
+        <v>16.26779440219766</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1658,28 +1658,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>11.57708180656444</v>
+        <v>7.868526506801143</v>
       </c>
       <c r="C45">
-        <v>1.290171100208435</v>
+        <v>0.8768829373342271</v>
       </c>
       <c r="D45">
-        <v>8.027277329340514</v>
+        <v>5.455851958094063</v>
       </c>
       <c r="E45">
-        <v>2.570558836540892</v>
+        <v>1.747116473785742</v>
       </c>
       <c r="F45">
-        <v>4.343097443179496</v>
+        <v>2.951847272418938</v>
       </c>
       <c r="G45">
-        <v>6.121054910549371</v>
+        <v>4.160261075976267</v>
       </c>
       <c r="H45">
-        <v>0.921279020038997</v>
+        <v>0.6261602457733555</v>
       </c>
       <c r="I45">
-        <v>34.85052044642214</v>
+        <v>23.68664647018373</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1687,28 +1687,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>26.88870613137546</v>
+        <v>18.2752873706349</v>
       </c>
       <c r="C46">
-        <v>1.032136880166747</v>
+        <v>0.7015063498673816</v>
       </c>
       <c r="D46">
-        <v>12.67464841474818</v>
+        <v>8.614503091727469</v>
       </c>
       <c r="E46">
-        <v>12.85279418270446</v>
+        <v>8.735582368928709</v>
       </c>
       <c r="F46">
-        <v>13.38143536547196</v>
+        <v>9.094880785290782</v>
       </c>
       <c r="G46">
-        <v>20.71741662032094</v>
+        <v>14.08088364176582</v>
       </c>
       <c r="H46">
-        <v>0.4606395100194985</v>
+        <v>0.3130801228866777</v>
       </c>
       <c r="I46">
-        <v>88.00777710480726</v>
+        <v>59.81572373110175</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1716,28 +1716,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>51.11655071850021</v>
+        <v>34.74208276188407</v>
       </c>
       <c r="C47">
-        <v>2.193290870354339</v>
+        <v>1.490700993468186</v>
       </c>
       <c r="D47">
-        <v>21.5469023050719</v>
+        <v>14.64465525593669</v>
       </c>
       <c r="E47">
-        <v>37.27310312984293</v>
+        <v>25.33318886989325</v>
       </c>
       <c r="F47">
-        <v>19.72001001227447</v>
+        <v>13.40298220990221</v>
       </c>
       <c r="G47">
-        <v>29.19272341954316</v>
+        <v>19.84124513157912</v>
       </c>
       <c r="H47">
-        <v>2.533517305107242</v>
+        <v>1.721940675876728</v>
       </c>
       <c r="I47">
-        <v>163.5760977606942</v>
+        <v>111.1767958985402</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1745,28 +1745,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>73.52380582797976</v>
+        <v>49.97148890407984</v>
       </c>
       <c r="C48">
-        <v>3.354444860541931</v>
+        <v>2.27989563706899</v>
       </c>
       <c r="D48">
-        <v>22.81436714654673</v>
+        <v>15.50610556510944</v>
       </c>
       <c r="E48">
-        <v>40.70051491189746</v>
+        <v>27.66267750160758</v>
       </c>
       <c r="F48">
-        <v>20.77643912007489</v>
+        <v>14.12099911400411</v>
       </c>
       <c r="G48">
-        <v>37.19717984103079</v>
+        <v>25.28158653862501</v>
       </c>
       <c r="H48">
-        <v>3.915435835165739</v>
+        <v>2.661181044536761</v>
       </c>
       <c r="I48">
-        <v>202.2821875432373</v>
+        <v>137.4839343050317</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1774,28 +1774,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>79.96589167195515</v>
+        <v>54.34994316996112</v>
       </c>
       <c r="C49">
-        <v>5.805769950937956</v>
+        <v>3.945973218004022</v>
       </c>
       <c r="D49">
-        <v>28.72920307342921</v>
+        <v>19.5262070079156</v>
       </c>
       <c r="E49">
-        <v>19.27919127405669</v>
+        <v>13.10337355339306</v>
       </c>
       <c r="F49">
-        <v>21.24596316798618</v>
+        <v>14.4401177380494</v>
       </c>
       <c r="G49">
-        <v>25.42592039766662</v>
+        <v>17.28108446943988</v>
       </c>
       <c r="H49">
-        <v>1.612238285068245</v>
+        <v>1.095780430103372</v>
       </c>
       <c r="I49">
-        <v>182.0641778211001</v>
+        <v>123.7424795868665</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_여름_배출량/경기대로_여름_배출량_PM10_재비산.xlsx
+++ b/output/경기대로_여름_배출량/경기대로_여름_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>47.90917348899084</v>
+        <v>70.48949003190441</v>
       </c>
       <c r="C2">
-        <v>4.472102980404557</v>
+        <v>6.579872611063017</v>
       </c>
       <c r="D2">
-        <v>20.10050721403076</v>
+        <v>29.57417963441242</v>
       </c>
       <c r="E2">
-        <v>9.900326684785869</v>
+        <v>14.56650007373172</v>
       </c>
       <c r="F2">
-        <v>14.12099911400411</v>
+        <v>20.77643912007489</v>
       </c>
       <c r="G2">
-        <v>16.96106438667247</v>
+        <v>24.95507001993205</v>
       </c>
       <c r="H2">
-        <v>1.40886055299005</v>
+        <v>2.072877795087743</v>
       </c>
       <c r="I2">
-        <v>114.8730344218787</v>
+        <v>169.0144292862063</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>45.14884362571786</v>
+        <v>66.42817504331127</v>
       </c>
       <c r="C3">
-        <v>5.699739092672475</v>
+        <v>8.386112151354824</v>
       </c>
       <c r="D3">
-        <v>24.69490886295207</v>
+        <v>36.33399212227813</v>
       </c>
       <c r="E3">
-        <v>3.785419026535775</v>
+        <v>5.5695441458386</v>
       </c>
       <c r="F3">
-        <v>15.55703292220791</v>
+        <v>22.88929733567572</v>
       </c>
       <c r="G3">
-        <v>15.04094389006804</v>
+        <v>22.12996775352465</v>
       </c>
       <c r="H3">
-        <v>3.600421413196795</v>
+        <v>5.297354365224233</v>
       </c>
       <c r="I3">
-        <v>113.5273088333509</v>
+        <v>167.0344429172074</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>42.19814618566745</v>
+        <v>62.08676936584961</v>
       </c>
       <c r="C4">
-        <v>4.472102980404557</v>
+        <v>6.579872611063017</v>
       </c>
       <c r="D4">
-        <v>12.34745443147603</v>
+        <v>18.16699606113906</v>
       </c>
       <c r="E4">
-        <v>3.494232947571485</v>
+        <v>5.141117673081784</v>
       </c>
       <c r="F4">
-        <v>12.36584668175501</v>
+        <v>18.19405685656275</v>
       </c>
       <c r="G4">
-        <v>14.40090372453323</v>
+        <v>21.18826699805552</v>
       </c>
       <c r="H4">
-        <v>3.130801228866778</v>
+        <v>4.606395100194987</v>
       </c>
       <c r="I4">
-        <v>92.40948818027454</v>
+        <v>135.9634746659467</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>48.95619516126679</v>
+        <v>72.0299888206811</v>
       </c>
       <c r="C5">
-        <v>4.822856155338249</v>
+        <v>7.09594105114639</v>
       </c>
       <c r="D5">
-        <v>16.65470597733977</v>
+        <v>24.50432026851315</v>
       </c>
       <c r="E5">
-        <v>6.114907658250096</v>
+        <v>8.996955927893124</v>
       </c>
       <c r="F5">
-        <v>14.91879567411733</v>
+        <v>21.95024923985313</v>
       </c>
       <c r="G5">
-        <v>11.84074306239399</v>
+        <v>17.42146397617897</v>
       </c>
       <c r="H5">
-        <v>2.661181044536761</v>
+        <v>3.915435835165739</v>
       </c>
       <c r="I5">
-        <v>105.969384733243</v>
+        <v>155.9143551194316</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>45.52957877927273</v>
+        <v>66.98835642104825</v>
       </c>
       <c r="C6">
-        <v>4.998232742805094</v>
+        <v>7.353975271188077</v>
       </c>
       <c r="D6">
-        <v>20.38765731708834</v>
+        <v>29.99666791490403</v>
       </c>
       <c r="E6">
-        <v>5.241349421357223</v>
+        <v>7.711676509622677</v>
       </c>
       <c r="F6">
-        <v>15.95593120226453</v>
+        <v>23.47620239556485</v>
       </c>
       <c r="G6">
-        <v>12.1607631451614</v>
+        <v>17.89231435391355</v>
       </c>
       <c r="H6">
-        <v>2.348100921650083</v>
+        <v>3.45479632514624</v>
       </c>
       <c r="I6">
-        <v>106.6216135295994</v>
+        <v>156.8739891913877</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>48.82928344341516</v>
+        <v>71.84326169476883</v>
       </c>
       <c r="C7">
-        <v>5.173609330271939</v>
+        <v>7.612009491229764</v>
       </c>
       <c r="D7">
-        <v>23.54630845072175</v>
+        <v>34.6440390003117</v>
       </c>
       <c r="E7">
-        <v>5.241349421357223</v>
+        <v>7.711676509622677</v>
       </c>
       <c r="F7">
-        <v>16.75372776237775</v>
+        <v>24.65001251534309</v>
       </c>
       <c r="G7">
-        <v>11.52072297962659</v>
+        <v>16.95061359844441</v>
       </c>
       <c r="H7">
-        <v>2.035020798763405</v>
+        <v>2.994156815126741</v>
       </c>
       <c r="I7">
-        <v>113.1000221865338</v>
+        <v>166.4057696248472</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>49.90803304515401</v>
+        <v>73.4304422650236</v>
       </c>
       <c r="C8">
-        <v>4.735167861604825</v>
+        <v>6.966923941125547</v>
       </c>
       <c r="D8">
-        <v>22.97200824460658</v>
+        <v>33.79906243932849</v>
       </c>
       <c r="E8">
-        <v>5.823721579285804</v>
+        <v>8.568529455136309</v>
       </c>
       <c r="F8">
-        <v>15.63681257821924</v>
+        <v>23.00667834765355</v>
       </c>
       <c r="G8">
-        <v>9.920622565789561</v>
+        <v>14.59636170977158</v>
       </c>
       <c r="H8">
-        <v>1.095780430103372</v>
+        <v>1.612238285068245</v>
       </c>
       <c r="I8">
-        <v>110.0921463047634</v>
+        <v>161.9802364431073</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>55.80942792525485</v>
+        <v>82.11325361994696</v>
       </c>
       <c r="C9">
-        <v>4.384414686671135</v>
+        <v>6.450855501042175</v>
       </c>
       <c r="D9">
-        <v>20.10050721403076</v>
+        <v>29.57417963441242</v>
       </c>
       <c r="E9">
-        <v>9.317954526857289</v>
+        <v>13.7096471282181</v>
       </c>
       <c r="F9">
-        <v>13.88166014597014</v>
+        <v>20.42429608414142</v>
       </c>
       <c r="G9">
-        <v>10.56066273132437</v>
+        <v>15.5380624652407</v>
       </c>
       <c r="H9">
-        <v>1.721940675876728</v>
+        <v>2.533517305107242</v>
       </c>
       <c r="I9">
-        <v>115.7765679059853</v>
+        <v>170.343811738109</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>60.60034527415399</v>
+        <v>89.1622026231374</v>
       </c>
       <c r="C10">
-        <v>5.348985917738784</v>
+        <v>7.870043711271451</v>
       </c>
       <c r="D10">
-        <v>18.37760659568527</v>
+        <v>27.03924995146279</v>
       </c>
       <c r="E10">
-        <v>17.47116473785742</v>
+        <v>25.70558836540892</v>
       </c>
       <c r="F10">
-        <v>13.32320255389088</v>
+        <v>19.60262900029664</v>
       </c>
       <c r="G10">
-        <v>8.00050206918513</v>
+        <v>11.77125944336418</v>
       </c>
       <c r="H10">
-        <v>0.9392403686600335</v>
+        <v>1.381918530058495</v>
       </c>
       <c r="I10">
-        <v>124.0610475171715</v>
+        <v>182.5328916249999</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>64.40769680970293</v>
+        <v>94.76401640050727</v>
       </c>
       <c r="C11">
-        <v>3.332155161870062</v>
+        <v>4.902650180792051</v>
       </c>
       <c r="D11">
-        <v>15.79325566816703</v>
+        <v>23.23685542703833</v>
       </c>
       <c r="E11">
-        <v>18.63590905371458</v>
+        <v>27.41929425643619</v>
       </c>
       <c r="F11">
-        <v>7.419508009053006</v>
+        <v>10.91643411393765</v>
       </c>
       <c r="G11">
-        <v>1.600100413837026</v>
+        <v>2.354251888672835</v>
       </c>
       <c r="H11">
-        <v>1.095780430103372</v>
+        <v>1.612238285068245</v>
       </c>
       <c r="I11">
-        <v>112.284405546448</v>
+        <v>165.2057405524526</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>46.92560767564069</v>
+        <v>69.04235480608391</v>
       </c>
       <c r="C12">
-        <v>2.806025399469526</v>
+        <v>4.12854752066699</v>
       </c>
       <c r="D12">
-        <v>16.08040577122461</v>
+        <v>23.65934370752994</v>
       </c>
       <c r="E12">
-        <v>11.35625707960732</v>
+        <v>16.70863243751581</v>
       </c>
       <c r="F12">
-        <v>6.621711448939779</v>
+        <v>9.742623994159409</v>
       </c>
       <c r="G12">
-        <v>3.520220910441456</v>
+        <v>5.179354155080236</v>
       </c>
       <c r="H12">
-        <v>0.3130801228866777</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="I12">
-        <v>87.62330840821005</v>
+        <v>128.9214961310558</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>40.92902900715108</v>
+        <v>60.21949810672629</v>
       </c>
       <c r="C13">
-        <v>1.9291424621353</v>
+        <v>2.838376420458556</v>
       </c>
       <c r="D13">
-        <v>9.475953400900215</v>
+        <v>13.942113256223</v>
       </c>
       <c r="E13">
-        <v>15.1416761061431</v>
+        <v>22.2781765833544</v>
       </c>
       <c r="F13">
-        <v>4.148542112588776</v>
+        <v>6.103812622846859</v>
       </c>
       <c r="G13">
-        <v>5.760361489813294</v>
+        <v>8.475306799222206</v>
       </c>
       <c r="H13">
-        <v>0.7827003072166946</v>
+        <v>1.151598775048747</v>
       </c>
       <c r="I13">
-        <v>78.16740488594846</v>
+        <v>115.0088825638801</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>32.42594391109181</v>
+        <v>47.70878067060021</v>
       </c>
       <c r="C14">
-        <v>1.666077580935031</v>
+        <v>2.451325090396026</v>
       </c>
       <c r="D14">
-        <v>9.763103503957799</v>
+        <v>14.36460153671461</v>
       </c>
       <c r="E14">
-        <v>9.609140605821581</v>
+        <v>14.13807360097491</v>
       </c>
       <c r="F14">
-        <v>2.792287960396292</v>
+        <v>4.108335419223847</v>
       </c>
       <c r="G14">
-        <v>4.48028115874367</v>
+        <v>6.591905288283937</v>
       </c>
       <c r="H14">
-        <v>0.7827003072166946</v>
+        <v>1.151598775048747</v>
       </c>
       <c r="I14">
-        <v>61.51953502816288</v>
+        <v>90.51462038124228</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,25 +815,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>22.90756507221946</v>
+        <v>33.70424622717552</v>
       </c>
       <c r="C15">
-        <v>2.367583930802413</v>
+        <v>3.483461970562773</v>
       </c>
       <c r="D15">
-        <v>6.317302267266809</v>
+        <v>9.294742170815336</v>
       </c>
       <c r="E15">
-        <v>5.532535500321516</v>
+        <v>8.140102982379494</v>
       </c>
       <c r="F15">
-        <v>2.393389680339679</v>
+        <v>3.521430359334726</v>
       </c>
       <c r="G15">
-        <v>3.840240993208862</v>
+        <v>5.650204532814803</v>
       </c>
       <c r="I15">
-        <v>43.35861744415874</v>
+        <v>63.79418824308265</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,25 +841,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>14.08720068153108</v>
+        <v>20.72671097626859</v>
       </c>
       <c r="C16">
-        <v>1.9291424621353</v>
+        <v>2.838376420458556</v>
       </c>
       <c r="D16">
-        <v>4.307251545863735</v>
+        <v>6.33732420737409</v>
       </c>
       <c r="E16">
-        <v>2.911860789642902</v>
+        <v>4.284264727568154</v>
       </c>
       <c r="F16">
-        <v>1.834932088260421</v>
+        <v>2.699763275489957</v>
       </c>
       <c r="G16">
-        <v>3.520220910441456</v>
+        <v>5.179354155080236</v>
       </c>
       <c r="I16">
-        <v>28.59060847787489</v>
+        <v>42.06579376223959</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -867,25 +867,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>10.9461356647032</v>
+        <v>16.10521460993842</v>
       </c>
       <c r="C17">
-        <v>2.718337105736104</v>
+        <v>3.999530410646148</v>
       </c>
       <c r="D17">
-        <v>1.435750515287911</v>
+        <v>2.11244140245803</v>
       </c>
       <c r="E17">
-        <v>0.5823721579285805</v>
+        <v>0.856852945513631</v>
       </c>
       <c r="F17">
-        <v>1.037135528147194</v>
+        <v>1.525953155711715</v>
       </c>
       <c r="G17">
-        <v>4.160261075976267</v>
+        <v>6.121054910549371</v>
       </c>
       <c r="I17">
-        <v>20.87999204777926</v>
+        <v>30.72104743481732</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,25 +893,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>7.138784129154263</v>
+        <v>10.50340083256854</v>
       </c>
       <c r="C18">
-        <v>2.455272224535836</v>
+        <v>3.612479080583618</v>
       </c>
       <c r="D18">
-        <v>2.58435092751824</v>
+        <v>3.802394524424455</v>
       </c>
       <c r="E18">
-        <v>1.164744315857161</v>
+        <v>1.713705891027262</v>
       </c>
       <c r="F18">
-        <v>1.914711744271744</v>
+        <v>2.817144287467781</v>
       </c>
       <c r="G18">
-        <v>2.560160662139241</v>
+        <v>3.766803021876536</v>
       </c>
       <c r="I18">
-        <v>17.81802400347648</v>
+        <v>26.21592763794819</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -919,28 +919,28 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>4.251542548029649</v>
+        <v>6.255358718063042</v>
       </c>
       <c r="C19">
-        <v>2.192207343335567</v>
+        <v>3.225427750521087</v>
       </c>
       <c r="D19">
-        <v>3.445801236690987</v>
+        <v>5.069859365899274</v>
       </c>
       <c r="E19">
-        <v>0.2911860789642903</v>
+        <v>0.4284264727568155</v>
       </c>
       <c r="F19">
-        <v>0.8775762161245491</v>
+        <v>1.291191131756066</v>
       </c>
       <c r="G19">
-        <v>5.440341407045887</v>
+        <v>8.004456421487639</v>
       </c>
       <c r="H19">
-        <v>0.1565400614433389</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="I19">
-        <v>16.65519489163427</v>
+        <v>24.50503961549367</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,28 +948,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>5.139924572991067</v>
+        <v>7.562448599449348</v>
       </c>
       <c r="C20">
-        <v>1.666077580935031</v>
+        <v>2.451325090396026</v>
       </c>
       <c r="D20">
-        <v>4.307251545863735</v>
+        <v>6.33732420737409</v>
       </c>
       <c r="E20">
-        <v>0.8735582368928712</v>
+        <v>1.285279418270446</v>
       </c>
       <c r="F20">
-        <v>1.755152432249098</v>
+        <v>2.582382263512133</v>
       </c>
       <c r="G20">
-        <v>4.48028115874367</v>
+        <v>6.591905288283937</v>
       </c>
       <c r="H20">
-        <v>0.1565400614433389</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="I20">
-        <v>18.37878558911881</v>
+        <v>27.04098462229572</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,25 +977,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>8.820364390688374</v>
+        <v>12.9775352509069</v>
       </c>
       <c r="C21">
-        <v>0.7891946436008044</v>
+        <v>1.161153990187591</v>
       </c>
       <c r="D21">
-        <v>6.030152164209228</v>
+        <v>8.872253890323726</v>
       </c>
       <c r="E21">
-        <v>2.038302552750032</v>
+        <v>2.998985309297708</v>
       </c>
       <c r="F21">
-        <v>3.111406584441583</v>
+        <v>4.577859467135145</v>
       </c>
       <c r="G21">
-        <v>7.360461903650317</v>
+        <v>10.82955868789504</v>
       </c>
       <c r="I21">
-        <v>28.14988223934034</v>
+        <v>41.41734659574611</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>17.73591256976547</v>
+        <v>26.09511584624807</v>
       </c>
       <c r="C22">
-        <v>0.7015063498673816</v>
+        <v>1.032136880166747</v>
       </c>
       <c r="D22">
-        <v>8.90165319478505</v>
+        <v>13.09713669523979</v>
       </c>
       <c r="E22">
-        <v>8.444396289964418</v>
+        <v>12.42436770994765</v>
       </c>
       <c r="F22">
-        <v>8.775762161245488</v>
+        <v>12.91191131756067</v>
       </c>
       <c r="G22">
-        <v>13.44084347623101</v>
+        <v>19.7757158648518</v>
       </c>
       <c r="H22">
-        <v>0.3130801228866777</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="I22">
-        <v>58.3131541647455</v>
+        <v>85.79702382403424</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>33.69506108960811</v>
+        <v>49.57605192972351</v>
       </c>
       <c r="C23">
-        <v>1.578389287201609</v>
+        <v>2.322307980375183</v>
       </c>
       <c r="D23">
-        <v>15.21895546205186</v>
+        <v>22.39187886605512</v>
       </c>
       <c r="E23">
-        <v>24.45963063300038</v>
+        <v>35.9878237115725</v>
       </c>
       <c r="F23">
-        <v>12.92430427383427</v>
+        <v>19.01572394040753</v>
       </c>
       <c r="G23">
-        <v>18.88118488327691</v>
+        <v>27.78017228633945</v>
       </c>
       <c r="H23">
-        <v>1.878480737320067</v>
+        <v>2.763837060116991</v>
       </c>
       <c r="I23">
-        <v>108.6360063662932</v>
+        <v>159.8377957745903</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>48.48027621932317</v>
+        <v>71.3297620985099</v>
       </c>
       <c r="C24">
-        <v>2.367583930802413</v>
+        <v>3.483461970562773</v>
       </c>
       <c r="D24">
-        <v>16.08040577122461</v>
+        <v>23.65934370752994</v>
       </c>
       <c r="E24">
-        <v>26.49793318575041</v>
+        <v>38.9868090208702</v>
       </c>
       <c r="F24">
-        <v>13.64232117793617</v>
+        <v>20.07215304820794</v>
       </c>
       <c r="G24">
-        <v>24.00150620755538</v>
+        <v>35.31377833009252</v>
       </c>
       <c r="H24">
-        <v>2.817721105980099</v>
+        <v>4.145755590175487</v>
       </c>
       <c r="I24">
-        <v>133.8877475985722</v>
+        <v>196.9910637659488</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>52.7000908378899</v>
+        <v>77.53843903509487</v>
       </c>
       <c r="C25">
-        <v>4.033661511737444</v>
+        <v>5.9347870609588</v>
       </c>
       <c r="D25">
-        <v>20.10050721403076</v>
+        <v>29.57417963441242</v>
       </c>
       <c r="E25">
-        <v>12.52100139546448</v>
+        <v>18.42233832854306</v>
       </c>
       <c r="F25">
-        <v>13.88166014597014</v>
+        <v>20.42429608414142</v>
       </c>
       <c r="G25">
-        <v>16.32102422113767</v>
+        <v>24.01336926446291</v>
       </c>
       <c r="H25">
-        <v>1.252320491546711</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="I25">
-        <v>120.8102658177771</v>
+        <v>177.7499674476915</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>49.40038617374748</v>
+        <v>72.68353376137429</v>
       </c>
       <c r="C26">
-        <v>4.296726392937712</v>
+        <v>6.321838391021331</v>
       </c>
       <c r="D26">
-        <v>19.5262070079156</v>
+        <v>28.72920307342921</v>
       </c>
       <c r="E26">
-        <v>10.19151276375016</v>
+        <v>14.99492654648854</v>
       </c>
       <c r="F26">
-        <v>14.67945670608337</v>
+        <v>21.59810620391966</v>
       </c>
       <c r="G26">
-        <v>17.92112463497468</v>
+        <v>26.36762115313575</v>
       </c>
       <c r="H26">
-        <v>1.252320491546711</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="I26">
-        <v>117.2677341709557</v>
+        <v>172.5377871694468</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>46.54487252208579</v>
+        <v>68.48217342834684</v>
       </c>
       <c r="C27">
-        <v>5.52436250520563</v>
+        <v>8.128077931313136</v>
       </c>
       <c r="D27">
-        <v>23.83345855377934</v>
+        <v>35.06652728080331</v>
       </c>
       <c r="E27">
-        <v>4.076605105500064</v>
+        <v>5.997970618595416</v>
       </c>
       <c r="F27">
-        <v>16.11549051428717</v>
+        <v>23.7109644195205</v>
       </c>
       <c r="G27">
-        <v>15.68098405560285</v>
+        <v>23.07166850899378</v>
       </c>
       <c r="H27">
-        <v>3.287341290310116</v>
+        <v>4.836714855204734</v>
       </c>
       <c r="I27">
-        <v>115.063114546771</v>
+        <v>169.2940970427777</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>47.17943111134397</v>
+        <v>69.41580905790849</v>
       </c>
       <c r="C28">
-        <v>5.085921036538516</v>
+        <v>7.482992381208921</v>
       </c>
       <c r="D28">
-        <v>18.66475669874285</v>
+        <v>27.4617382319544</v>
       </c>
       <c r="E28">
-        <v>4.076605105500064</v>
+        <v>5.997970618595416</v>
       </c>
       <c r="F28">
-        <v>14.4401177380494</v>
+        <v>21.24596316798618</v>
       </c>
       <c r="G28">
-        <v>16.64104430390507</v>
+        <v>24.48421964219748</v>
       </c>
       <c r="H28">
-        <v>2.035020798763405</v>
+        <v>2.994156815126741</v>
       </c>
       <c r="I28">
-        <v>108.1228967928433</v>
+        <v>159.0828499149776</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>49.24174652643294</v>
+        <v>72.45012485398388</v>
       </c>
       <c r="C29">
-        <v>5.436674211472208</v>
+        <v>7.999060821292296</v>
       </c>
       <c r="D29">
-        <v>15.79325566816703</v>
+        <v>23.23685542703833</v>
       </c>
       <c r="E29">
-        <v>4.367791184464354</v>
+        <v>6.42639709135223</v>
       </c>
       <c r="F29">
-        <v>14.4401177380494</v>
+        <v>21.24596316798618</v>
       </c>
       <c r="G29">
-        <v>13.44084347623101</v>
+        <v>19.7757158648518</v>
       </c>
       <c r="H29">
-        <v>1.252320491546711</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="I29">
-        <v>103.9727492963636</v>
+        <v>152.9766752665827</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>51.1136943647445</v>
+        <v>75.20434996119073</v>
       </c>
       <c r="C30">
-        <v>4.735167861604825</v>
+        <v>6.966923941125547</v>
       </c>
       <c r="D30">
-        <v>13.20890474064879</v>
+        <v>19.43446090261388</v>
       </c>
       <c r="E30">
-        <v>4.950163342392934</v>
+        <v>7.283250036865859</v>
       </c>
       <c r="F30">
-        <v>17.95042260254759</v>
+        <v>26.41072769501044</v>
       </c>
       <c r="G30">
-        <v>15.04094389006804</v>
+        <v>22.12996775352465</v>
       </c>
       <c r="H30">
-        <v>1.878480737320067</v>
+        <v>2.763837060116991</v>
       </c>
       <c r="I30">
-        <v>108.8777775393268</v>
+        <v>160.1935173504481</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>45.94204186229051</v>
+        <v>67.59521958026333</v>
       </c>
       <c r="C31">
-        <v>4.735167861604825</v>
+        <v>6.966923941125547</v>
       </c>
       <c r="D31">
-        <v>17.51615628651252</v>
+        <v>25.77178510998798</v>
       </c>
       <c r="E31">
-        <v>5.241349421357223</v>
+        <v>7.711676509622677</v>
       </c>
       <c r="F31">
-        <v>14.04121945799278</v>
+        <v>20.65905810809706</v>
       </c>
       <c r="G31">
-        <v>10.56066273132437</v>
+        <v>15.5380624652407</v>
       </c>
       <c r="H31">
-        <v>0.9392403686600335</v>
+        <v>1.381918530058495</v>
       </c>
       <c r="I31">
-        <v>98.97583798974226</v>
+        <v>145.6246442443958</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>51.17715022367032</v>
+        <v>75.29771352414687</v>
       </c>
       <c r="C32">
-        <v>4.209038099204289</v>
+        <v>6.192821281000486</v>
       </c>
       <c r="D32">
-        <v>26.41780948129757</v>
+        <v>38.86892180522776</v>
       </c>
       <c r="E32">
-        <v>5.241349421357223</v>
+        <v>7.711676509622677</v>
       </c>
       <c r="F32">
-        <v>16.11549051428717</v>
+        <v>23.7109644195205</v>
       </c>
       <c r="G32">
-        <v>9.920622565789561</v>
+        <v>14.59636170977158</v>
       </c>
       <c r="H32">
-        <v>2.191560860206744</v>
+        <v>3.22447657013649</v>
       </c>
       <c r="I32">
-        <v>115.2730211658129</v>
+        <v>169.6029358194264</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>51.43097365937358</v>
+        <v>75.67116777597153</v>
       </c>
       <c r="C33">
-        <v>4.384414686671135</v>
+        <v>6.450855501042175</v>
       </c>
       <c r="D33">
-        <v>22.39770803849141</v>
+        <v>32.95408587834527</v>
       </c>
       <c r="E33">
-        <v>7.570838053071549</v>
+        <v>11.1390882916772</v>
       </c>
       <c r="F33">
-        <v>14.91879567411733</v>
+        <v>21.95024923985313</v>
       </c>
       <c r="G33">
-        <v>12.4807832279288</v>
+        <v>18.36316473164811</v>
       </c>
       <c r="H33">
-        <v>2.035020798763405</v>
+        <v>2.994156815126741</v>
       </c>
       <c r="I33">
-        <v>115.2185341384172</v>
+        <v>169.5227682336641</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>61.39354351072664</v>
+        <v>90.32924716008941</v>
       </c>
       <c r="C34">
-        <v>3.770596630537177</v>
+        <v>5.547735730896268</v>
       </c>
       <c r="D34">
-        <v>19.5262070079156</v>
+        <v>28.72920307342921</v>
       </c>
       <c r="E34">
-        <v>15.43286218510738</v>
+        <v>22.70660305611122</v>
       </c>
       <c r="F34">
-        <v>12.44562633776633</v>
+        <v>18.31143786854058</v>
       </c>
       <c r="G34">
-        <v>7.040441820882911</v>
+        <v>10.35870831016047</v>
       </c>
       <c r="H34">
-        <v>1.565400614433389</v>
+        <v>2.303197550097493</v>
       </c>
       <c r="I34">
-        <v>121.1746781073694</v>
+        <v>178.2861327493246</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>64.09041751507382</v>
+        <v>94.29719858572642</v>
       </c>
       <c r="C35">
-        <v>2.89371369320295</v>
+        <v>4.257564630687835</v>
       </c>
       <c r="D35">
-        <v>16.08040577122461</v>
+        <v>23.65934370752994</v>
       </c>
       <c r="E35">
-        <v>17.17997865889312</v>
+        <v>25.27716189265211</v>
       </c>
       <c r="F35">
-        <v>9.653338377370041</v>
+        <v>14.20310244931673</v>
       </c>
       <c r="G35">
-        <v>4.48028115874367</v>
+        <v>6.591905288283937</v>
       </c>
       <c r="H35">
-        <v>1.252320491546711</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="I35">
-        <v>115.6304556660549</v>
+        <v>170.128834594275</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>48.22645278361991</v>
+        <v>70.95630784668526</v>
       </c>
       <c r="C36">
-        <v>2.367583930802413</v>
+        <v>3.483461970562773</v>
       </c>
       <c r="D36">
-        <v>16.36755587428219</v>
+        <v>24.08183198802155</v>
       </c>
       <c r="E36">
-        <v>18.05353689578599</v>
+        <v>26.56244131092256</v>
       </c>
       <c r="F36">
-        <v>5.983474200849197</v>
+        <v>8.803575898336817</v>
       </c>
       <c r="G36">
-        <v>4.160261075976267</v>
+        <v>6.121054910549371</v>
       </c>
       <c r="H36">
-        <v>0.7827003072166946</v>
+        <v>1.151598775048747</v>
       </c>
       <c r="I36">
-        <v>95.94156506853267</v>
+        <v>141.1602727001271</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>44.76810847216294</v>
+        <v>65.8679936655743</v>
       </c>
       <c r="C37">
-        <v>2.192207343335567</v>
+        <v>3.225427750521087</v>
       </c>
       <c r="D37">
-        <v>9.475953400900215</v>
+        <v>13.942113256223</v>
       </c>
       <c r="E37">
-        <v>17.76235081682171</v>
+        <v>26.13401483816574</v>
       </c>
       <c r="F37">
-        <v>5.185677640735972</v>
+        <v>7.629765778558575</v>
       </c>
       <c r="G37">
-        <v>5.440341407045887</v>
+        <v>8.004456421487639</v>
       </c>
       <c r="H37">
-        <v>0.3130801228866777</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="I37">
-        <v>85.13771920388898</v>
+        <v>125.2644112205499</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>35.59873685738258</v>
+        <v>52.37695881840842</v>
       </c>
       <c r="C38">
-        <v>1.31532440600134</v>
+        <v>1.935256650312652</v>
       </c>
       <c r="D38">
-        <v>7.75305278255472</v>
+        <v>11.40718357327336</v>
       </c>
       <c r="E38">
-        <v>12.22981531650019</v>
+        <v>17.99391185578625</v>
       </c>
       <c r="F38">
-        <v>3.350745552475551</v>
+        <v>4.930002503068617</v>
       </c>
       <c r="G38">
-        <v>5.440341407045887</v>
+        <v>8.004456421487639</v>
       </c>
       <c r="H38">
-        <v>0.3130801228866777</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="I38">
-        <v>66.00109644484694</v>
+        <v>97.10840933235646</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>25.47752735871498</v>
+        <v>37.48547052690017</v>
       </c>
       <c r="C39">
-        <v>1.841454168401877</v>
+        <v>2.709359310437713</v>
       </c>
       <c r="D39">
-        <v>3.73295133974857</v>
+        <v>5.492347646390878</v>
       </c>
       <c r="E39">
-        <v>5.241349421357223</v>
+        <v>7.711676509622677</v>
       </c>
       <c r="F39">
-        <v>2.393389680339679</v>
+        <v>3.521430359334726</v>
       </c>
       <c r="G39">
-        <v>3.200200827674053</v>
+        <v>4.708503777345669</v>
       </c>
       <c r="H39">
-        <v>0.4696201843300167</v>
+        <v>0.6909592650292476</v>
       </c>
       <c r="I39">
-        <v>42.3564929805664</v>
+        <v>62.31974739506107</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,25 +1525,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>15.0073106359554</v>
+        <v>22.08048263913297</v>
       </c>
       <c r="C40">
-        <v>2.104519049602144</v>
+        <v>3.096410640500243</v>
       </c>
       <c r="D40">
-        <v>4.020101442806152</v>
+        <v>5.914835926882485</v>
       </c>
       <c r="E40">
-        <v>2.329488631714322</v>
+        <v>3.427411782054524</v>
       </c>
       <c r="F40">
-        <v>1.914711744271744</v>
+        <v>2.817144287467781</v>
       </c>
       <c r="G40">
-        <v>4.48028115874367</v>
+        <v>6.591905288283937</v>
       </c>
       <c r="I40">
-        <v>29.85641266309344</v>
+        <v>43.92819056432194</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1551,25 +1551,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>11.58069425396135</v>
+        <v>17.03885023950007</v>
       </c>
       <c r="C41">
-        <v>2.192207343335567</v>
+        <v>3.225427750521087</v>
       </c>
       <c r="D41">
-        <v>1.435750515287911</v>
+        <v>2.11244140245803</v>
       </c>
       <c r="E41">
-        <v>1.164744315857161</v>
+        <v>1.713705891027262</v>
       </c>
       <c r="F41">
-        <v>1.51581346421513</v>
+        <v>2.23023922757866</v>
       </c>
       <c r="G41">
-        <v>5.440341407045887</v>
+        <v>8.004456421487639</v>
       </c>
       <c r="I41">
-        <v>23.32955129970301</v>
+        <v>34.32512093257276</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1577,25 +1577,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>7.519519282709153</v>
+        <v>11.06358221030552</v>
       </c>
       <c r="C42">
-        <v>2.455272224535836</v>
+        <v>3.612479080583618</v>
       </c>
       <c r="D42">
-        <v>2.297200824460659</v>
+        <v>3.379906243932849</v>
       </c>
       <c r="E42">
-        <v>1.455930394821451</v>
+        <v>2.142132363784077</v>
       </c>
       <c r="F42">
-        <v>1.595593120226453</v>
+        <v>2.347620239556484</v>
       </c>
       <c r="G42">
-        <v>4.800301241511079</v>
+        <v>7.062755666018505</v>
       </c>
       <c r="I42">
-        <v>20.12381708826463</v>
+        <v>29.60847580418105</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,28 +1603,28 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>5.266836290842699</v>
+        <v>7.749175725361678</v>
       </c>
       <c r="C43">
-        <v>2.718337105736104</v>
+        <v>3.999530410646148</v>
       </c>
       <c r="D43">
-        <v>4.307251545863735</v>
+        <v>6.33732420737409</v>
       </c>
       <c r="E43">
-        <v>0.5823721579285805</v>
+        <v>0.856852945513631</v>
       </c>
       <c r="F43">
-        <v>1.276474496181162</v>
+        <v>1.878096191645188</v>
       </c>
       <c r="G43">
-        <v>3.200200827674053</v>
+        <v>4.708503777345669</v>
       </c>
       <c r="H43">
-        <v>0.1565400614433389</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="I43">
-        <v>17.50801248566967</v>
+        <v>25.75980301289615</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1632,25 +1632,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>5.837939021175037</v>
+        <v>8.589447791967157</v>
       </c>
       <c r="C44">
-        <v>2.718337105736104</v>
+        <v>3.999530410646148</v>
       </c>
       <c r="D44">
-        <v>2.871501030575822</v>
+        <v>4.224882804916061</v>
       </c>
       <c r="E44">
-        <v>1.164744315857161</v>
+        <v>1.713705891027262</v>
       </c>
       <c r="F44">
-        <v>1.755152432249098</v>
+        <v>2.582382263512133</v>
       </c>
       <c r="G44">
-        <v>1.920120496604431</v>
+        <v>2.825102266407402</v>
       </c>
       <c r="I44">
-        <v>16.26779440219766</v>
+        <v>23.93505142847616</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1658,28 +1658,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>7.868526506801143</v>
+        <v>11.57708180656444</v>
       </c>
       <c r="C45">
-        <v>0.8768829373342271</v>
+        <v>1.290171100208435</v>
       </c>
       <c r="D45">
-        <v>5.455851958094063</v>
+        <v>8.027277329340514</v>
       </c>
       <c r="E45">
-        <v>1.747116473785742</v>
+        <v>2.570558836540892</v>
       </c>
       <c r="F45">
-        <v>2.951847272418938</v>
+        <v>4.343097443179496</v>
       </c>
       <c r="G45">
-        <v>4.160261075976267</v>
+        <v>6.121054910549371</v>
       </c>
       <c r="H45">
-        <v>0.6261602457733555</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="I45">
-        <v>23.68664647018373</v>
+        <v>34.85052044642214</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1687,28 +1687,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>18.2752873706349</v>
+        <v>26.88870613137546</v>
       </c>
       <c r="C46">
-        <v>0.7015063498673816</v>
+        <v>1.032136880166747</v>
       </c>
       <c r="D46">
-        <v>8.614503091727469</v>
+        <v>12.67464841474818</v>
       </c>
       <c r="E46">
-        <v>8.735582368928709</v>
+        <v>12.85279418270446</v>
       </c>
       <c r="F46">
-        <v>9.094880785290782</v>
+        <v>13.38143536547196</v>
       </c>
       <c r="G46">
-        <v>14.08088364176582</v>
+        <v>20.71741662032094</v>
       </c>
       <c r="H46">
-        <v>0.3130801228866777</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="I46">
-        <v>59.81572373110175</v>
+        <v>88.00777710480726</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1716,28 +1716,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>34.74208276188407</v>
+        <v>51.11655071850021</v>
       </c>
       <c r="C47">
-        <v>1.490700993468186</v>
+        <v>2.193290870354339</v>
       </c>
       <c r="D47">
-        <v>14.64465525593669</v>
+        <v>21.5469023050719</v>
       </c>
       <c r="E47">
-        <v>25.33318886989325</v>
+        <v>37.27310312984293</v>
       </c>
       <c r="F47">
-        <v>13.40298220990221</v>
+        <v>19.72001001227447</v>
       </c>
       <c r="G47">
-        <v>19.84124513157912</v>
+        <v>29.19272341954316</v>
       </c>
       <c r="H47">
-        <v>1.721940675876728</v>
+        <v>2.533517305107242</v>
       </c>
       <c r="I47">
-        <v>111.1767958985402</v>
+        <v>163.5760977606942</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1745,28 +1745,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>49.97148890407984</v>
+        <v>73.52380582797976</v>
       </c>
       <c r="C48">
-        <v>2.27989563706899</v>
+        <v>3.354444860541931</v>
       </c>
       <c r="D48">
-        <v>15.50610556510944</v>
+        <v>22.81436714654673</v>
       </c>
       <c r="E48">
-        <v>27.66267750160758</v>
+        <v>40.70051491189746</v>
       </c>
       <c r="F48">
-        <v>14.12099911400411</v>
+        <v>20.77643912007489</v>
       </c>
       <c r="G48">
-        <v>25.28158653862501</v>
+        <v>37.19717984103079</v>
       </c>
       <c r="H48">
-        <v>2.661181044536761</v>
+        <v>3.915435835165739</v>
       </c>
       <c r="I48">
-        <v>137.4839343050317</v>
+        <v>202.2821875432373</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1774,28 +1774,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>54.34994316996112</v>
+        <v>79.96589167195515</v>
       </c>
       <c r="C49">
-        <v>3.945973218004022</v>
+        <v>5.805769950937956</v>
       </c>
       <c r="D49">
-        <v>19.5262070079156</v>
+        <v>28.72920307342921</v>
       </c>
       <c r="E49">
-        <v>13.10337355339306</v>
+        <v>19.27919127405669</v>
       </c>
       <c r="F49">
-        <v>14.4401177380494</v>
+        <v>21.24596316798618</v>
       </c>
       <c r="G49">
-        <v>17.28108446943988</v>
+        <v>25.42592039766662</v>
       </c>
       <c r="H49">
-        <v>1.095780430103372</v>
+        <v>1.612238285068245</v>
       </c>
       <c r="I49">
-        <v>123.7424795868665</v>
+        <v>182.0641778211001</v>
       </c>
     </row>
   </sheetData>
